--- a/TPFINAL_Craicnet/bin/Debug/Peliculas.xlsx
+++ b/TPFINAL_Craicnet/bin/Debug/Peliculas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumnos.ALUMNOS\Downloads\Craicnet-Craicnet\Craicnet-Craicnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Previous\Universidad\2018\2018 - 2do cuatrimestre\LP2\TP Final\Craicnet\TPFINAL_Craicnet\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="389">
   <si>
     <t>Nombre</t>
   </si>
@@ -1185,12 +1185,24 @@
   </si>
   <si>
     <t>War</t>
+  </si>
+  <si>
+    <t>VistosMes</t>
+  </si>
+  <si>
+    <t>VistosAnio</t>
+  </si>
+  <si>
+    <t>AlqMes</t>
+  </si>
+  <si>
+    <t>AlqAnio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1240,13 +1252,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1589,23 +1604,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,8 +1645,20 @@
       <c r="H1" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1670,7 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(25,125)</f>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>2006</v>
@@ -1652,13 +1679,30 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>12260</v>
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f ca="1">RANDBETWEEN(K2,1000)</f>
+        <v>790</v>
+      </c>
+      <c r="J2">
+        <f ca="1">RANDBETWEEN(I2,10000)</f>
+        <v>952</v>
+      </c>
+      <c r="K2">
+        <f ca="1">RANDBETWEEN(25,1000)</f>
+        <v>774</v>
+      </c>
+      <c r="L2">
+        <f ca="1">RANDBETWEEN(K2,10000)</f>
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1714,7 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(25,125)</f>
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1">
         <v>2008</v>
@@ -1679,13 +1723,30 @@
         <v>14</v>
       </c>
       <c r="G3" s="1">
-        <v>5390</v>
+        <f t="shared" ref="G3:G66" ca="1" si="1">RANDBETWEEN(0,100)</f>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" ca="1" si="2">RANDBETWEEN(K3,1000)</f>
+        <v>957</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" ca="1" si="3">RANDBETWEEN(I3,10000)</f>
+        <v>4160</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" ca="1" si="4">RANDBETWEEN(25,1000)</f>
+        <v>952</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" ca="1" si="5">RANDBETWEEN(K3,10000)</f>
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1758,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1">
         <v>2012</v>
@@ -1706,13 +1767,30 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>8221</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" ca="1" si="2"/>
+        <v>857</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="3"/>
+        <v>5467</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="4"/>
+        <v>698</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="5"/>
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1802,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>2015</v>
@@ -1733,13 +1811,30 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>2594</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" ca="1" si="2"/>
+        <v>946</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
+        <v>3164</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="4"/>
+        <v>908</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="5"/>
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1846,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1">
         <v>2009</v>
@@ -1760,13 +1855,30 @@
         <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>4540</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" ca="1" si="2"/>
+        <v>857</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="3"/>
+        <v>6077</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="4"/>
+        <v>755</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="5"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1890,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>2007</v>
@@ -1787,13 +1899,30 @@
         <v>24</v>
       </c>
       <c r="G7" s="1">
-        <v>11917</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" ca="1" si="2"/>
+        <v>873</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>4352</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="4"/>
+        <v>808</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="5"/>
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +1934,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>1999</v>
@@ -1814,13 +1943,30 @@
         <v>182</v>
       </c>
       <c r="G8" s="1">
-        <v>6339</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" ca="1" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4520</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="5"/>
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,7 +1978,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>1992</v>
@@ -1841,13 +1987,30 @@
         <v>30</v>
       </c>
       <c r="G9" s="1">
-        <v>3837</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" ca="1" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1299</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="4"/>
+        <v>627</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1859,7 +2022,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1">
         <v>2006</v>
@@ -1868,13 +2031,30 @@
         <v>33</v>
       </c>
       <c r="G10" s="1">
-        <v>2110</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" ca="1" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="3"/>
+        <v>8127</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="4"/>
+        <v>901</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="5"/>
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1886,7 +2066,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>1997</v>
@@ -1895,13 +2075,30 @@
         <v>37</v>
       </c>
       <c r="G11" s="1">
-        <v>4545</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" ca="1" si="2"/>
+        <v>617</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="3"/>
+        <v>4933</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="4"/>
+        <v>509</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="5"/>
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +2110,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <v>1982</v>
@@ -1922,13 +2119,30 @@
         <v>41</v>
       </c>
       <c r="G12" s="1">
-        <v>11738</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" ca="1" si="2"/>
+        <v>816</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="3"/>
+        <v>5131</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="4"/>
+        <v>723</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="5"/>
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1940,7 +2154,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
         <v>1979</v>
@@ -1949,13 +2163,30 @@
         <v>44</v>
       </c>
       <c r="G13" s="1">
-        <v>14042</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" ca="1" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6395</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="4"/>
+        <v>389</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="5"/>
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1967,7 +2198,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>2012</v>
@@ -1976,13 +2207,30 @@
         <v>47</v>
       </c>
       <c r="G14" s="1">
-        <v>5092</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" ca="1" si="2"/>
+        <v>959</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1166</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="4"/>
+        <v>749</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="5"/>
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,7 +2242,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
         <v>2009</v>
@@ -2003,13 +2251,30 @@
         <v>51</v>
       </c>
       <c r="G15" s="1">
-        <v>11255</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" ca="1" si="2"/>
+        <v>979</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="3"/>
+        <v>2215</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="4"/>
+        <v>727</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="5"/>
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -2021,7 +2286,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>2008</v>
@@ -2030,13 +2295,30 @@
         <v>55</v>
       </c>
       <c r="G16" s="1">
-        <v>10203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" ca="1" si="2"/>
+        <v>906</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="3"/>
+        <v>4626</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="5"/>
+        <v>8821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2048,7 +2330,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1">
         <v>2005</v>
@@ -2057,13 +2339,30 @@
         <v>57</v>
       </c>
       <c r="G17" s="1">
-        <v>2237</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" ca="1" si="2"/>
+        <v>789</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5432</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="4"/>
+        <v>685</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="5"/>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -2075,7 +2374,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1">
         <v>2003</v>
@@ -2084,13 +2383,30 @@
         <v>60</v>
       </c>
       <c r="G18" s="1">
-        <v>5104</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" ca="1" si="2"/>
+        <v>864</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7145</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="4"/>
+        <v>820</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -2102,7 +2418,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1">
         <v>2010</v>
@@ -2111,13 +2427,30 @@
         <v>63</v>
       </c>
       <c r="G19" s="1">
-        <v>7266</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" ca="1" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6583</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="5"/>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -2129,7 +2462,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1">
         <v>2006</v>
@@ -2138,13 +2471,30 @@
         <v>66</v>
       </c>
       <c r="G20" s="1">
-        <v>6114</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" ca="1" si="2"/>
+        <v>858</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="3"/>
+        <v>4549</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="4"/>
+        <v>597</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="5"/>
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -2156,7 +2506,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>2011</v>
@@ -2165,13 +2515,30 @@
         <v>68</v>
       </c>
       <c r="G21" s="1">
-        <v>11936</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>991</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="3"/>
+        <v>9686</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="4"/>
+        <v>336</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="5"/>
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2183,7 +2550,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1">
         <v>1942</v>
@@ -2192,13 +2559,30 @@
         <v>71</v>
       </c>
       <c r="G22" s="1">
-        <v>13928</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" ca="1" si="2"/>
+        <v>605</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="3"/>
+        <v>4227</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="4"/>
+        <v>573</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="5"/>
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -2210,7 +2594,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
         <v>1976</v>
@@ -2219,13 +2603,30 @@
         <v>74</v>
       </c>
       <c r="G23" s="1">
-        <v>1614</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" ca="1" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="3"/>
+        <v>6299</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="4"/>
+        <v>898</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="5"/>
+        <v>9263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2237,7 +2638,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1">
         <v>1950</v>
@@ -2246,13 +2647,30 @@
         <v>76</v>
       </c>
       <c r="G24" s="1">
-        <v>1508</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>804</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="3"/>
+        <v>4672</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="5"/>
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -2264,7 +2682,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1">
         <v>2003</v>
@@ -2273,13 +2691,30 @@
         <v>79</v>
       </c>
       <c r="G25" s="1">
-        <v>13990</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" ca="1" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1808</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="5"/>
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -2291,7 +2726,7 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
         <v>2008</v>
@@ -2300,13 +2735,30 @@
         <v>82</v>
       </c>
       <c r="G26" s="1">
-        <v>8547</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" ca="1" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="3"/>
+        <v>7635</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="5"/>
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -2318,7 +2770,7 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1">
         <v>2006</v>
@@ -2327,13 +2779,30 @@
         <v>85</v>
       </c>
       <c r="G27" s="1">
-        <v>12659</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" ca="1" si="2"/>
+        <v>888</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="3"/>
+        <v>7513</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="4"/>
+        <v>740</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="5"/>
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2345,7 +2814,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="E28" s="1">
         <v>1997</v>
@@ -2354,13 +2823,30 @@
         <v>88</v>
       </c>
       <c r="G28" s="1">
-        <v>1553</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" ca="1" si="2"/>
+        <v>748</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="3"/>
+        <v>7106</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="4"/>
+        <v>643</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="5"/>
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -2372,7 +2858,7 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E29" s="1">
         <v>2003</v>
@@ -2381,13 +2867,30 @@
         <v>91</v>
       </c>
       <c r="G29" s="1">
-        <v>2178</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" ca="1" si="2"/>
+        <v>719</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="3"/>
+        <v>3680</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="5"/>
+        <v>8574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2399,7 +2902,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1">
         <v>1982</v>
@@ -2408,13 +2911,30 @@
         <v>94</v>
       </c>
       <c r="G30" s="1">
-        <v>12127</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" ca="1" si="2"/>
+        <v>991</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="3"/>
+        <v>4432</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="4"/>
+        <v>978</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="5"/>
+        <v>9455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
@@ -2426,7 +2946,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1">
         <v>2008</v>
@@ -2435,13 +2955,30 @@
         <v>97</v>
       </c>
       <c r="G31" s="1">
-        <v>10709</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" ca="1" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="3"/>
+        <v>3928</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="4"/>
+        <v>803</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="5"/>
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -2453,7 +2990,7 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E32" s="1">
         <v>2013</v>
@@ -2462,13 +2999,30 @@
         <v>100</v>
       </c>
       <c r="G32" s="1">
-        <v>8245</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" ca="1" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="3"/>
+        <v>1825</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="4"/>
+        <v>449</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="5"/>
+        <v>7058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -2480,7 +3034,7 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1">
         <v>1996</v>
@@ -2489,13 +3043,30 @@
         <v>103</v>
       </c>
       <c r="G33" s="1">
-        <v>14768</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" ca="1" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="3"/>
+        <v>1670</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="4"/>
+        <v>988</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="5"/>
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -2507,7 +3078,7 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1">
         <v>2005</v>
@@ -2516,13 +3087,30 @@
         <v>106</v>
       </c>
       <c r="G34" s="1">
-        <v>14975</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" ca="1" si="2"/>
+        <v>769</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>5834</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="4"/>
+        <v>597</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="5"/>
+        <v>7535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -2534,7 +3122,7 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1">
         <v>2007</v>
@@ -2543,13 +3131,30 @@
         <v>108</v>
       </c>
       <c r="G35" s="1">
-        <v>13258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" ca="1" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>9157</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="5"/>
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -2570,13 +3175,30 @@
         <v>111</v>
       </c>
       <c r="G36" s="1">
-        <v>3056</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" ca="1" si="2"/>
+        <v>911</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="3"/>
+        <v>3259</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="4"/>
+        <v>573</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="5"/>
+        <v>9617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -2588,7 +3210,7 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1">
         <v>2001</v>
@@ -2597,13 +3219,30 @@
         <v>114</v>
       </c>
       <c r="G37" s="1">
-        <v>2295</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" ca="1" si="2"/>
+        <v>784</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="3"/>
+        <v>8623</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="4"/>
+        <v>755</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="5"/>
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
@@ -2615,7 +3254,7 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E38" s="1">
         <v>2007</v>
@@ -2624,13 +3263,30 @@
         <v>117</v>
       </c>
       <c r="G38" s="1">
-        <v>4458</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" ca="1" si="2"/>
+        <v>838</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="3"/>
+        <v>4703</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="5"/>
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -2642,7 +3298,7 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1">
         <v>2002</v>
@@ -2651,13 +3307,30 @@
         <v>121</v>
       </c>
       <c r="G39" s="1">
-        <v>12746</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" ca="1" si="2"/>
+        <v>805</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="3"/>
+        <v>4201</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="4"/>
+        <v>524</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="5"/>
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -2669,7 +3342,7 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1">
         <v>2007</v>
@@ -2678,13 +3351,30 @@
         <v>124</v>
       </c>
       <c r="G40" s="1">
-        <v>8232</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" ca="1" si="2"/>
+        <v>858</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="3"/>
+        <v>1671</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="4"/>
+        <v>367</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="5"/>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -2696,7 +3386,7 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1">
         <v>2009</v>
@@ -2705,13 +3395,30 @@
         <v>127</v>
       </c>
       <c r="G41" s="1">
-        <v>1815</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" ca="1" si="2"/>
+        <v>973</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="4"/>
+        <v>899</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="5"/>
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -2723,7 +3430,7 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E42" s="1">
         <v>2013</v>
@@ -2732,13 +3439,30 @@
         <v>127</v>
       </c>
       <c r="G42" s="1">
-        <v>2206</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" ca="1" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="3"/>
+        <v>1281</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="5"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -2750,7 +3474,7 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1">
         <v>2008</v>
@@ -2759,13 +3483,30 @@
         <v>131</v>
       </c>
       <c r="G43" s="1">
-        <v>11394</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" ca="1" si="2"/>
+        <v>583</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>9137</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="4"/>
+        <v>458</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="5"/>
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -2777,7 +3518,7 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" s="1">
         <v>2006</v>
@@ -2786,13 +3527,30 @@
         <v>134</v>
       </c>
       <c r="G44" s="1">
-        <v>12530</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" ca="1" si="2"/>
+        <v>459</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="3"/>
+        <v>6707</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="5"/>
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
@@ -2804,7 +3562,7 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E45" s="1">
         <v>2001</v>
@@ -2813,13 +3571,30 @@
         <v>136</v>
       </c>
       <c r="G45" s="1">
-        <v>13768</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" ca="1" si="2"/>
+        <v>867</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="5"/>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
@@ -2831,7 +3606,7 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1">
         <v>2002</v>
@@ -2840,13 +3615,30 @@
         <v>137</v>
       </c>
       <c r="G46" s="1">
-        <v>5681</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" ca="1" si="2"/>
+        <v>891</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="3"/>
+        <v>6217</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="4"/>
+        <v>764</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="5"/>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -2858,7 +3650,7 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E47" s="1">
         <v>2004</v>
@@ -2867,13 +3659,30 @@
         <v>139</v>
       </c>
       <c r="G47" s="1">
-        <v>4812</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" ca="1" si="2"/>
+        <v>748</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="3"/>
+        <v>3160</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="4"/>
+        <v>708</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="5"/>
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -2885,7 +3694,7 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1">
         <v>2005</v>
@@ -2894,13 +3703,30 @@
         <v>141</v>
       </c>
       <c r="G48" s="1">
-        <v>2748</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" ca="1" si="2"/>
+        <v>991</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="3"/>
+        <v>7450</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="4"/>
+        <v>780</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="5"/>
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
@@ -2912,7 +3738,7 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E49" s="1">
         <v>2007</v>
@@ -2921,13 +3747,30 @@
         <v>143</v>
       </c>
       <c r="G49" s="1">
-        <v>9412</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" ca="1" si="2"/>
+        <v>975</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="3"/>
+        <v>2224</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="5"/>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -2939,7 +3782,7 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E50" s="1">
         <v>2009</v>
@@ -2948,13 +3791,30 @@
         <v>143</v>
       </c>
       <c r="G50" s="1">
-        <v>10470</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" ca="1" si="2"/>
+        <v>989</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="3"/>
+        <v>8240</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="4"/>
+        <v>553</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="5"/>
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -2966,7 +3826,7 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1">
         <v>2010</v>
@@ -2975,13 +3835,30 @@
         <v>144</v>
       </c>
       <c r="G51" s="1">
-        <v>6874</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" ca="1" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="3"/>
+        <v>3732</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="5"/>
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
@@ -2993,7 +3870,7 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E52" s="1">
         <v>2010</v>
@@ -3002,13 +3879,30 @@
         <v>144</v>
       </c>
       <c r="G52" s="1">
-        <v>13446</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" ca="1" si="2"/>
+        <v>905</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="3"/>
+        <v>4090</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="4"/>
+        <v>633</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="5"/>
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3020,7 +3914,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1">
         <v>2007</v>
@@ -3029,13 +3923,30 @@
         <v>155</v>
       </c>
       <c r="G53" s="1">
-        <v>6021</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" ca="1" si="2"/>
+        <v>717</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="3"/>
+        <v>3890</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ca="1" si="5"/>
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
@@ -3047,7 +3958,7 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E54" s="1">
         <v>2004</v>
@@ -3056,13 +3967,30 @@
         <v>158</v>
       </c>
       <c r="G54" s="1">
-        <v>7904</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" ca="1" si="2"/>
+        <v>891</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="3"/>
+        <v>9070</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="4"/>
+        <v>569</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ca="1" si="5"/>
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3074,7 +4002,7 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1">
         <v>2002</v>
@@ -3083,13 +4011,30 @@
         <v>161</v>
       </c>
       <c r="G55" s="1">
-        <v>14509</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" ca="1" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="3"/>
+        <v>4426</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ca="1" si="5"/>
+        <v>6882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -3101,7 +4046,7 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E56" s="1">
         <v>2006</v>
@@ -3110,13 +4055,30 @@
         <v>164</v>
       </c>
       <c r="G56" s="1">
-        <v>6835</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" ca="1" si="2"/>
+        <v>433</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="3"/>
+        <v>3803</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ca="1" si="5"/>
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -3128,7 +4090,7 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E57" s="1">
         <v>2009</v>
@@ -3137,13 +4099,30 @@
         <v>166</v>
       </c>
       <c r="G57" s="1">
-        <v>9717</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" ca="1" si="2"/>
+        <v>902</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="3"/>
+        <v>2335</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="5"/>
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -3155,7 +4134,7 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1">
         <v>2012</v>
@@ -3164,13 +4143,30 @@
         <v>169</v>
       </c>
       <c r="G58" s="1">
-        <v>11902</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" ca="1" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="3"/>
+        <v>6326</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="4"/>
+        <v>701</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ca="1" si="5"/>
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
@@ -3182,7 +4178,7 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1">
         <v>2014</v>
@@ -3191,13 +4187,30 @@
         <v>171</v>
       </c>
       <c r="G59" s="1">
-        <v>10811</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" ca="1" si="2"/>
+        <v>861</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="3"/>
+        <v>6322</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="4"/>
+        <v>462</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ca="1" si="5"/>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -3209,7 +4222,7 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="E60" s="1">
         <v>2008</v>
@@ -3218,13 +4231,30 @@
         <v>174</v>
       </c>
       <c r="G60" s="1">
-        <v>3633</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" ca="1" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="3"/>
+        <v>7514</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ca="1" si="5"/>
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -3236,7 +4266,7 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E61" s="1">
         <v>2003</v>
@@ -3245,13 +4275,30 @@
         <v>177</v>
       </c>
       <c r="G61" s="1">
-        <v>12529</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" ca="1" si="2"/>
+        <v>555</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="3"/>
+        <v>4933</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ca="1" si="5"/>
+        <v>7233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -3263,7 +4310,7 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1">
         <v>2004</v>
@@ -3272,13 +4319,30 @@
         <v>179</v>
       </c>
       <c r="G62" s="1">
-        <v>5437</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" ca="1" si="2"/>
+        <v>893</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="3"/>
+        <v>1498</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="4"/>
+        <v>866</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ca="1" si="5"/>
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -3290,7 +4354,7 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E63" s="1">
         <v>2008</v>
@@ -3299,13 +4363,30 @@
         <v>183</v>
       </c>
       <c r="G63" s="1">
-        <v>8908</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" ca="1" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="3"/>
+        <v>3506</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ca="1" si="5"/>
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -3317,7 +4398,7 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E64" s="1">
         <v>2006</v>
@@ -3326,13 +4407,30 @@
         <v>185</v>
       </c>
       <c r="G64" s="1">
-        <v>6975</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" ca="1" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="3"/>
+        <v>4979</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ca="1" si="5"/>
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>186</v>
       </c>
@@ -3344,7 +4442,7 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1">
         <v>2013</v>
@@ -3353,13 +4451,30 @@
         <v>188</v>
       </c>
       <c r="G65" s="1">
-        <v>14526</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" ca="1" si="2"/>
+        <v>982</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="3"/>
+        <v>8513</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="4"/>
+        <v>968</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ca="1" si="5"/>
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>189</v>
       </c>
@@ -3371,7 +4486,7 @@
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1">
         <v>2001</v>
@@ -3380,13 +4495,30 @@
         <v>191</v>
       </c>
       <c r="G66" s="1">
-        <v>3444</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" ca="1" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="3"/>
+        <v>6343</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ca="1" si="5"/>
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>192</v>
       </c>
@@ -3397,8 +4529,8 @@
         <v>190</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(25,125)</f>
-        <v>29</v>
+        <f t="shared" ref="D67:D130" ca="1" si="6">RANDBETWEEN(25,125)</f>
+        <v>41</v>
       </c>
       <c r="E67" s="1">
         <v>2002</v>
@@ -3407,13 +4539,30 @@
         <v>193</v>
       </c>
       <c r="G67" s="1">
-        <v>7223</v>
+        <f t="shared" ref="G67:G130" ca="1" si="7">RANDBETWEEN(0,100)</f>
+        <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" ca="1" si="8">RANDBETWEEN(K67,1000)</f>
+        <v>895</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" ca="1" si="9">RANDBETWEEN(I67,10000)</f>
+        <v>3525</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" ca="1" si="10">RANDBETWEEN(25,1000)</f>
+        <v>805</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L130" ca="1" si="11">RANDBETWEEN(K67,10000)</f>
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -3424,8 +4573,8 @@
         <v>190</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>109</v>
       </c>
       <c r="E68" s="1">
         <v>2003</v>
@@ -3434,13 +4583,30 @@
         <v>193</v>
       </c>
       <c r="G68" s="1">
-        <v>6222</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" ca="1" si="8"/>
+        <v>136</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="9"/>
+        <v>8219</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ca="1" si="11"/>
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>195</v>
       </c>
@@ -3451,8 +4617,8 @@
         <v>196</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
       </c>
       <c r="E69" s="1">
         <v>1999</v>
@@ -3461,13 +4627,30 @@
         <v>197</v>
       </c>
       <c r="G69" s="1">
-        <v>10022</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" ca="1" si="8"/>
+        <v>992</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="9"/>
+        <v>2676</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="10"/>
+        <v>969</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ca="1" si="11"/>
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>198</v>
       </c>
@@ -3478,8 +4661,8 @@
         <v>196</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
       </c>
       <c r="E70" s="1">
         <v>2003</v>
@@ -3488,13 +4671,30 @@
         <v>199</v>
       </c>
       <c r="G70" s="1">
-        <v>6847</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" ca="1" si="8"/>
+        <v>387</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="9"/>
+        <v>2375</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ca="1" si="11"/>
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -3505,8 +4705,8 @@
         <v>196</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
       </c>
       <c r="E71" s="1">
         <v>2003</v>
@@ -3515,13 +4715,30 @@
         <v>201</v>
       </c>
       <c r="G71" s="1">
-        <v>12972</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" ca="1" si="8"/>
+        <v>960</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="9"/>
+        <v>3044</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="10"/>
+        <v>715</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ca="1" si="11"/>
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>202</v>
       </c>
@@ -3532,8 +4749,8 @@
         <v>203</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
       </c>
       <c r="E72" s="1">
         <v>1964</v>
@@ -3542,13 +4759,30 @@
         <v>204</v>
       </c>
       <c r="G72" s="1">
-        <v>2008</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" ca="1" si="8"/>
+        <v>990</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="9"/>
+        <v>7820</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="10"/>
+        <v>757</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ca="1" si="11"/>
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>205</v>
       </c>
@@ -3559,8 +4793,8 @@
         <v>206</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
       </c>
       <c r="E73" s="1">
         <v>2008</v>
@@ -3569,13 +4803,30 @@
         <v>207</v>
       </c>
       <c r="G73" s="1">
-        <v>7997</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" ca="1" si="8"/>
+        <v>849</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="9"/>
+        <v>1385</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="L73">
+        <f t="shared" ca="1" si="11"/>
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -3586,8 +4837,8 @@
         <v>209</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>104</v>
       </c>
       <c r="E74" s="1">
         <v>1996</v>
@@ -3596,13 +4847,30 @@
         <v>210</v>
       </c>
       <c r="G74" s="1">
-        <v>8871</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" ca="1" si="8"/>
+        <v>689</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="9"/>
+        <v>4041</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="10"/>
+        <v>578</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ca="1" si="11"/>
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -3613,8 +4881,8 @@
         <v>212</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
       </c>
       <c r="E75" s="1">
         <v>2000</v>
@@ -3623,13 +4891,30 @@
         <v>213</v>
       </c>
       <c r="G75" s="1">
-        <v>5301</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" ca="1" si="8"/>
+        <v>481</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="9"/>
+        <v>1748</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="10"/>
+        <v>451</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ca="1" si="11"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>214</v>
       </c>
@@ -3640,8 +4925,8 @@
         <v>215</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
       </c>
       <c r="E76" s="1">
         <v>2006</v>
@@ -3650,13 +4935,30 @@
         <v>216</v>
       </c>
       <c r="G76" s="1">
-        <v>2525</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" ca="1" si="8"/>
+        <v>985</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="9"/>
+        <v>6039</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="10"/>
+        <v>913</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ca="1" si="11"/>
+        <v>7564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>217</v>
       </c>
@@ -3667,8 +4969,8 @@
         <v>218</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
       </c>
       <c r="E77" s="1">
         <v>2003</v>
@@ -3677,13 +4979,30 @@
         <v>219</v>
       </c>
       <c r="G77" s="1">
-        <v>7345</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" ca="1" si="8"/>
+        <v>741</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="9"/>
+        <v>6270</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="10"/>
+        <v>477</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ca="1" si="11"/>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -3694,8 +5013,8 @@
         <v>65</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
       </c>
       <c r="E78" s="1">
         <v>2001</v>
@@ -3704,13 +5023,30 @@
         <v>221</v>
       </c>
       <c r="G78" s="1">
-        <v>7850</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" ca="1" si="8"/>
+        <v>797</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="9"/>
+        <v>2899</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ca="1" si="11"/>
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -3721,8 +5057,8 @@
         <v>223</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
       </c>
       <c r="E79" s="1">
         <v>2013</v>
@@ -3731,13 +5067,30 @@
         <v>224</v>
       </c>
       <c r="G79" s="1">
-        <v>12866</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>46</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" ca="1" si="8"/>
+        <v>297</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="9"/>
+        <v>8181</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ca="1" si="11"/>
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>225</v>
       </c>
@@ -3748,8 +5101,8 @@
         <v>226</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
       </c>
       <c r="E80" s="1">
         <v>2005</v>
@@ -3758,13 +5111,30 @@
         <v>227</v>
       </c>
       <c r="G80" s="1">
-        <v>9618</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" ca="1" si="8"/>
+        <v>937</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="9"/>
+        <v>8616</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="10"/>
+        <v>930</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ca="1" si="11"/>
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>228</v>
       </c>
@@ -3775,8 +5145,8 @@
         <v>229</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
       </c>
       <c r="E81" s="1">
         <v>1998</v>
@@ -3785,13 +5155,30 @@
         <v>230</v>
       </c>
       <c r="G81" s="1">
-        <v>9934</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" ca="1" si="8"/>
+        <v>933</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ca="1" si="9"/>
+        <v>9923</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="10"/>
+        <v>639</v>
+      </c>
+      <c r="L81">
+        <f t="shared" ca="1" si="11"/>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -3802,8 +5189,8 @@
         <v>232</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
       </c>
       <c r="E82" s="1">
         <v>2012</v>
@@ -3812,13 +5199,30 @@
         <v>233</v>
       </c>
       <c r="G82" s="1">
-        <v>4309</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>57</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" ca="1" si="8"/>
+        <v>660</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ca="1" si="9"/>
+        <v>6925</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="10"/>
+        <v>597</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ca="1" si="11"/>
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>234</v>
       </c>
@@ -3829,8 +5233,8 @@
         <v>235</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
       </c>
       <c r="E83" s="1">
         <v>2009</v>
@@ -3839,13 +5243,30 @@
         <v>236</v>
       </c>
       <c r="G83" s="1">
-        <v>8467</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" ca="1" si="8"/>
+        <v>905</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ca="1" si="9"/>
+        <v>1733</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="10"/>
+        <v>894</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ca="1" si="11"/>
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>237</v>
       </c>
@@ -3856,8 +5277,8 @@
         <v>238</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
       </c>
       <c r="E84" s="1">
         <v>2013</v>
@@ -3866,13 +5287,30 @@
         <v>239</v>
       </c>
       <c r="G84" s="1">
-        <v>12673</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>87</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" ca="1" si="8"/>
+        <v>745</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ca="1" si="9"/>
+        <v>794</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="10"/>
+        <v>681</v>
+      </c>
+      <c r="L84">
+        <f t="shared" ca="1" si="11"/>
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
@@ -3883,8 +5321,8 @@
         <v>242</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33</v>
       </c>
       <c r="E85" s="1">
         <v>2001</v>
@@ -3893,13 +5331,30 @@
         <v>243</v>
       </c>
       <c r="G85" s="1">
-        <v>1776</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>40</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" ca="1" si="8"/>
+        <v>759</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ca="1" si="9"/>
+        <v>8079</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="10"/>
+        <v>502</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ca="1" si="11"/>
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>244</v>
       </c>
@@ -3910,8 +5365,8 @@
         <v>242</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
       </c>
       <c r="E86" s="1">
         <v>2004</v>
@@ -3920,13 +5375,30 @@
         <v>245</v>
       </c>
       <c r="G86" s="1">
-        <v>7883</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" ca="1" si="8"/>
+        <v>501</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ca="1" si="9"/>
+        <v>4180</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ca="1" si="10"/>
+        <v>281</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ca="1" si="11"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>246</v>
       </c>
@@ -3937,8 +5409,8 @@
         <v>242</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>123</v>
       </c>
       <c r="E87" s="1">
         <v>2007</v>
@@ -3947,13 +5419,30 @@
         <v>247</v>
       </c>
       <c r="G87" s="1">
-        <v>14245</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" ca="1" si="8"/>
+        <v>515</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="9"/>
+        <v>6851</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="10"/>
+        <v>119</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ca="1" si="11"/>
+        <v>7668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>248</v>
       </c>
@@ -3964,8 +5453,8 @@
         <v>249</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
       </c>
       <c r="E88" s="1">
         <v>2007</v>
@@ -3974,13 +5463,30 @@
         <v>250</v>
       </c>
       <c r="G88" s="1">
-        <v>1798</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" ca="1" si="8"/>
+        <v>989</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="9"/>
+        <v>4098</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="10"/>
+        <v>862</v>
+      </c>
+      <c r="L88">
+        <f t="shared" ca="1" si="11"/>
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>251</v>
       </c>
@@ -3991,8 +5497,8 @@
         <v>252</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="E89" s="1">
         <v>2001</v>
@@ -4001,13 +5507,30 @@
         <v>253</v>
       </c>
       <c r="G89" s="1">
-        <v>6766</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" ca="1" si="8"/>
+        <v>783</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="9"/>
+        <v>5444</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="10"/>
+        <v>213</v>
+      </c>
+      <c r="L89">
+        <f t="shared" ca="1" si="11"/>
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>254</v>
       </c>
@@ -4018,8 +5541,8 @@
         <v>29</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
       </c>
       <c r="E90" s="1">
         <v>2012</v>
@@ -4028,13 +5551,30 @@
         <v>255</v>
       </c>
       <c r="G90" s="1">
-        <v>11714</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" ca="1" si="8"/>
+        <v>840</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="9"/>
+        <v>9465</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="10"/>
+        <v>703</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ca="1" si="11"/>
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>256</v>
       </c>
@@ -4045,8 +5585,8 @@
         <v>257</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
       </c>
       <c r="E91" s="1">
         <v>2003</v>
@@ -4055,13 +5595,30 @@
         <v>258</v>
       </c>
       <c r="G91" s="1">
-        <v>6521</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" ca="1" si="8"/>
+        <v>921</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="9"/>
+        <v>5323</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="10"/>
+        <v>865</v>
+      </c>
+      <c r="L91">
+        <f t="shared" ca="1" si="11"/>
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>259</v>
       </c>
@@ -4072,8 +5629,8 @@
         <v>257</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
       </c>
       <c r="E92" s="1">
         <v>2006</v>
@@ -4082,13 +5639,30 @@
         <v>260</v>
       </c>
       <c r="G92" s="1">
-        <v>1972</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" ca="1" si="8"/>
+        <v>488</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="9"/>
+        <v>5374</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ca="1" si="11"/>
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>261</v>
       </c>
@@ -4099,8 +5673,8 @@
         <v>257</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
       </c>
       <c r="E93" s="1">
         <v>2007</v>
@@ -4109,13 +5683,30 @@
         <v>262</v>
       </c>
       <c r="G93" s="1">
-        <v>8496</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>61</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" ca="1" si="8"/>
+        <v>911</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="9"/>
+        <v>1580</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ca="1" si="11"/>
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>263</v>
       </c>
@@ -4126,8 +5717,8 @@
         <v>264</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
       </c>
       <c r="E94" s="1">
         <v>2011</v>
@@ -4136,13 +5727,30 @@
         <v>265</v>
       </c>
       <c r="G94" s="1">
-        <v>2201</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" ca="1" si="8"/>
+        <v>395</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="9"/>
+        <v>3355</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ca="1" si="11"/>
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>266</v>
       </c>
@@ -4153,8 +5761,8 @@
         <v>267</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
       </c>
       <c r="E95" s="1">
         <v>2000</v>
@@ -4163,13 +5771,30 @@
         <v>268</v>
       </c>
       <c r="G95" s="1">
-        <v>10298</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" ca="1" si="8"/>
+        <v>901</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="9"/>
+        <v>5571</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="10"/>
+        <v>845</v>
+      </c>
+      <c r="L95">
+        <f t="shared" ca="1" si="11"/>
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>269</v>
       </c>
@@ -4180,8 +5805,8 @@
         <v>270</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
       </c>
       <c r="E96" s="1">
         <v>2006</v>
@@ -4190,13 +5815,30 @@
         <v>271</v>
       </c>
       <c r="G96" s="1">
-        <v>8791</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" ca="1" si="8"/>
+        <v>772</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="9"/>
+        <v>3897</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="10"/>
+        <v>380</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ca="1" si="11"/>
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>272</v>
       </c>
@@ -4207,8 +5849,8 @@
         <v>273</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
       </c>
       <c r="E97" s="1">
         <v>2007</v>
@@ -4217,13 +5859,30 @@
         <v>274</v>
       </c>
       <c r="G97" s="1">
-        <v>2676</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" ca="1" si="8"/>
+        <v>879</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="9"/>
+        <v>7707</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="10"/>
+        <v>229</v>
+      </c>
+      <c r="L97">
+        <f t="shared" ca="1" si="11"/>
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>275</v>
       </c>
@@ -4234,8 +5893,8 @@
         <v>29</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
       </c>
       <c r="E98" s="1">
         <v>2010</v>
@@ -4244,13 +5903,30 @@
         <v>276</v>
       </c>
       <c r="G98" s="1">
-        <v>14736</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" ca="1" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ca="1" si="9"/>
+        <v>8132</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ca="1" si="10"/>
+        <v>349</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ca="1" si="11"/>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>277</v>
       </c>
@@ -4261,8 +5937,8 @@
         <v>65</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
       </c>
       <c r="E99" s="1">
         <v>2007</v>
@@ -4271,13 +5947,30 @@
         <v>278</v>
       </c>
       <c r="G99" s="1">
-        <v>10207</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" ca="1" si="8"/>
+        <v>621</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ca="1" si="9"/>
+        <v>882</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ca="1" si="10"/>
+        <v>309</v>
+      </c>
+      <c r="L99">
+        <f t="shared" ca="1" si="11"/>
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>279</v>
       </c>
@@ -4288,8 +5981,8 @@
         <v>280</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
       </c>
       <c r="E100" s="1">
         <v>2008</v>
@@ -4298,13 +5991,30 @@
         <v>281</v>
       </c>
       <c r="G100" s="1">
-        <v>13533</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" ca="1" si="8"/>
+        <v>850</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ca="1" si="9"/>
+        <v>3300</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ca="1" si="10"/>
+        <v>379</v>
+      </c>
+      <c r="L100">
+        <f t="shared" ca="1" si="11"/>
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>282</v>
       </c>
@@ -4315,8 +6025,8 @@
         <v>283</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
       </c>
       <c r="E101" s="1">
         <v>2000</v>
@@ -4325,13 +6035,30 @@
         <v>284</v>
       </c>
       <c r="G101" s="1">
-        <v>10643</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" ca="1" si="8"/>
+        <v>672</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ca="1" si="9"/>
+        <v>4945</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ca="1" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ca="1" si="11"/>
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>285</v>
       </c>
@@ -4342,8 +6069,8 @@
         <v>176</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
       </c>
       <c r="E102" s="1">
         <v>1992</v>
@@ -4352,13 +6079,30 @@
         <v>286</v>
       </c>
       <c r="G102" s="1">
-        <v>5712</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" ca="1" si="8"/>
+        <v>925</v>
+      </c>
+      <c r="J102">
+        <f t="shared" ca="1" si="9"/>
+        <v>4965</v>
+      </c>
+      <c r="K102">
+        <f t="shared" ca="1" si="10"/>
+        <v>756</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ca="1" si="11"/>
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>287</v>
       </c>
@@ -4369,8 +6113,8 @@
         <v>288</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
       </c>
       <c r="E103" s="1">
         <v>2002</v>
@@ -4379,13 +6123,30 @@
         <v>289</v>
       </c>
       <c r="G103" s="1">
-        <v>7232</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>57</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" ca="1" si="8"/>
+        <v>585</v>
+      </c>
+      <c r="J103">
+        <f t="shared" ca="1" si="9"/>
+        <v>5521</v>
+      </c>
+      <c r="K103">
+        <f t="shared" ca="1" si="10"/>
+        <v>564</v>
+      </c>
+      <c r="L103">
+        <f t="shared" ca="1" si="11"/>
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>290</v>
       </c>
@@ -4396,8 +6157,8 @@
         <v>291</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
       </c>
       <c r="E104" s="1">
         <v>2004</v>
@@ -4406,13 +6167,30 @@
         <v>292</v>
       </c>
       <c r="G104" s="1">
-        <v>2256</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" ca="1" si="8"/>
+        <v>956</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ca="1" si="9"/>
+        <v>2082</v>
+      </c>
+      <c r="K104">
+        <f t="shared" ca="1" si="10"/>
+        <v>816</v>
+      </c>
+      <c r="L104">
+        <f t="shared" ca="1" si="11"/>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>293</v>
       </c>
@@ -4423,8 +6201,8 @@
         <v>294</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>106</v>
       </c>
       <c r="E105" s="1">
         <v>2007</v>
@@ -4433,13 +6211,30 @@
         <v>295</v>
       </c>
       <c r="G105" s="1">
-        <v>11892</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" ca="1" si="8"/>
+        <v>945</v>
+      </c>
+      <c r="J105">
+        <f t="shared" ca="1" si="9"/>
+        <v>4357</v>
+      </c>
+      <c r="K105">
+        <f t="shared" ca="1" si="10"/>
+        <v>643</v>
+      </c>
+      <c r="L105">
+        <f t="shared" ca="1" si="11"/>
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>296</v>
       </c>
@@ -4450,8 +6245,8 @@
         <v>163</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
       </c>
       <c r="E106" s="1">
         <v>2011</v>
@@ -4460,13 +6255,30 @@
         <v>297</v>
       </c>
       <c r="G106" s="1">
-        <v>5495</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>47</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" ca="1" si="8"/>
+        <v>566</v>
+      </c>
+      <c r="J106">
+        <f t="shared" ca="1" si="9"/>
+        <v>2719</v>
+      </c>
+      <c r="K106">
+        <f t="shared" ca="1" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="L106">
+        <f t="shared" ca="1" si="11"/>
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>298</v>
       </c>
@@ -4477,8 +6289,8 @@
         <v>163</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
       </c>
       <c r="E107" s="1">
         <v>2004</v>
@@ -4487,13 +6299,30 @@
         <v>299</v>
       </c>
       <c r="G107" s="1">
-        <v>9774</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" ca="1" si="8"/>
+        <v>551</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ca="1" si="9"/>
+        <v>5957</v>
+      </c>
+      <c r="K107">
+        <f t="shared" ca="1" si="10"/>
+        <v>476</v>
+      </c>
+      <c r="L107">
+        <f t="shared" ca="1" si="11"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>300</v>
       </c>
@@ -4504,8 +6333,8 @@
         <v>29</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
       </c>
       <c r="E108" s="1">
         <v>2010</v>
@@ -4514,13 +6343,30 @@
         <v>182</v>
       </c>
       <c r="G108" s="1">
-        <v>14619</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" ca="1" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="J108">
+        <f t="shared" ca="1" si="9"/>
+        <v>3358</v>
+      </c>
+      <c r="K108">
+        <f t="shared" ca="1" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="L108">
+        <f t="shared" ca="1" si="11"/>
+        <v>9693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>301</v>
       </c>
@@ -4531,8 +6377,8 @@
         <v>302</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>104</v>
       </c>
       <c r="E109" s="1">
         <v>1991</v>
@@ -4541,13 +6387,30 @@
         <v>303</v>
       </c>
       <c r="G109" s="1">
-        <v>11259</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" ca="1" si="8"/>
+        <v>870</v>
+      </c>
+      <c r="J109">
+        <f t="shared" ca="1" si="9"/>
+        <v>5191</v>
+      </c>
+      <c r="K109">
+        <f t="shared" ca="1" si="10"/>
+        <v>731</v>
+      </c>
+      <c r="L109">
+        <f t="shared" ca="1" si="11"/>
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>304</v>
       </c>
@@ -4558,8 +6421,8 @@
         <v>305</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
       </c>
       <c r="E110" s="1">
         <v>1998</v>
@@ -4568,13 +6431,30 @@
         <v>306</v>
       </c>
       <c r="G110" s="1">
-        <v>3569</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" ca="1" si="8"/>
+        <v>774</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ca="1" si="9"/>
+        <v>9696</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ca="1" si="10"/>
+        <v>760</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ca="1" si="11"/>
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>307</v>
       </c>
@@ -4585,8 +6465,8 @@
         <v>308</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
       </c>
       <c r="E111" s="1">
         <v>2001</v>
@@ -4595,13 +6475,30 @@
         <v>309</v>
       </c>
       <c r="G111" s="1">
-        <v>2073</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" ca="1" si="8"/>
+        <v>654</v>
+      </c>
+      <c r="J111">
+        <f t="shared" ca="1" si="9"/>
+        <v>5185</v>
+      </c>
+      <c r="K111">
+        <f t="shared" ca="1" si="10"/>
+        <v>429</v>
+      </c>
+      <c r="L111">
+        <f t="shared" ca="1" si="11"/>
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>310</v>
       </c>
@@ -4612,8 +6509,8 @@
         <v>308</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>103</v>
       </c>
       <c r="E112" s="1">
         <v>2004</v>
@@ -4622,13 +6519,30 @@
         <v>311</v>
       </c>
       <c r="G112" s="1">
-        <v>4049</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" ca="1" si="8"/>
+        <v>898</v>
+      </c>
+      <c r="J112">
+        <f t="shared" ca="1" si="9"/>
+        <v>4443</v>
+      </c>
+      <c r="K112">
+        <f t="shared" ca="1" si="10"/>
+        <v>736</v>
+      </c>
+      <c r="L112">
+        <f t="shared" ca="1" si="11"/>
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>312</v>
       </c>
@@ -4639,8 +6553,8 @@
         <v>313</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
       </c>
       <c r="E113" s="1">
         <v>2010</v>
@@ -4649,13 +6563,30 @@
         <v>314</v>
       </c>
       <c r="G113" s="1">
-        <v>11800</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" ca="1" si="8"/>
+        <v>953</v>
+      </c>
+      <c r="J113">
+        <f t="shared" ca="1" si="9"/>
+        <v>8213</v>
+      </c>
+      <c r="K113">
+        <f t="shared" ca="1" si="10"/>
+        <v>596</v>
+      </c>
+      <c r="L113">
+        <f t="shared" ca="1" si="11"/>
+        <v>9931</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>315</v>
       </c>
@@ -4666,8 +6597,8 @@
         <v>130</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
       </c>
       <c r="E114" s="1">
         <v>2002</v>
@@ -4676,13 +6607,30 @@
         <v>316</v>
       </c>
       <c r="G114" s="1">
-        <v>14008</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" ca="1" si="8"/>
+        <v>999</v>
+      </c>
+      <c r="J114">
+        <f t="shared" ca="1" si="9"/>
+        <v>8279</v>
+      </c>
+      <c r="K114">
+        <f t="shared" ca="1" si="10"/>
+        <v>999</v>
+      </c>
+      <c r="L114">
+        <f t="shared" ca="1" si="11"/>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>317</v>
       </c>
@@ -4693,8 +6641,8 @@
         <v>318</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
       </c>
       <c r="E115" s="1">
         <v>2002</v>
@@ -4703,13 +6651,30 @@
         <v>319</v>
       </c>
       <c r="G115" s="1">
-        <v>13869</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>56</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" ca="1" si="8"/>
+        <v>921</v>
+      </c>
+      <c r="J115">
+        <f t="shared" ca="1" si="9"/>
+        <v>9726</v>
+      </c>
+      <c r="K115">
+        <f t="shared" ca="1" si="10"/>
+        <v>890</v>
+      </c>
+      <c r="L115">
+        <f t="shared" ca="1" si="11"/>
+        <v>6807</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>320</v>
       </c>
@@ -4720,8 +6685,8 @@
         <v>318</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>125</v>
       </c>
       <c r="E116" s="1">
         <v>2004</v>
@@ -4730,13 +6695,30 @@
         <v>321</v>
       </c>
       <c r="G116" s="1">
-        <v>12325</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" ca="1" si="8"/>
+        <v>843</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ca="1" si="9"/>
+        <v>4420</v>
+      </c>
+      <c r="K116">
+        <f t="shared" ca="1" si="10"/>
+        <v>702</v>
+      </c>
+      <c r="L116">
+        <f t="shared" ca="1" si="11"/>
+        <v>7464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>322</v>
       </c>
@@ -4747,8 +6729,8 @@
         <v>318</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
       </c>
       <c r="E117" s="1">
         <v>2007</v>
@@ -4757,13 +6739,30 @@
         <v>323</v>
       </c>
       <c r="G117" s="1">
-        <v>2649</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" ca="1" si="8"/>
+        <v>791</v>
+      </c>
+      <c r="J117">
+        <f t="shared" ca="1" si="9"/>
+        <v>9438</v>
+      </c>
+      <c r="K117">
+        <f t="shared" ca="1" si="10"/>
+        <v>411</v>
+      </c>
+      <c r="L117">
+        <f t="shared" ca="1" si="11"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>324</v>
       </c>
@@ -4774,8 +6773,8 @@
         <v>325</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
       </c>
       <c r="E118" s="1">
         <v>1999</v>
@@ -4784,13 +6783,30 @@
         <v>326</v>
       </c>
       <c r="G118" s="1">
-        <v>11990</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" ca="1" si="8"/>
+        <v>960</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ca="1" si="9"/>
+        <v>1965</v>
+      </c>
+      <c r="K118">
+        <f t="shared" ca="1" si="10"/>
+        <v>900</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ca="1" si="11"/>
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>327</v>
       </c>
@@ -4801,8 +6817,8 @@
         <v>325</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
       </c>
       <c r="E119" s="1">
         <v>2002</v>
@@ -4811,13 +6827,30 @@
         <v>328</v>
       </c>
       <c r="G119" s="1">
-        <v>10248</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" ca="1" si="8"/>
+        <v>519</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ca="1" si="9"/>
+        <v>8091</v>
+      </c>
+      <c r="K119">
+        <f t="shared" ca="1" si="10"/>
+        <v>286</v>
+      </c>
+      <c r="L119">
+        <f t="shared" ca="1" si="11"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>329</v>
       </c>
@@ -4828,8 +6861,8 @@
         <v>325</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
       </c>
       <c r="E120" s="1">
         <v>2005</v>
@@ -4838,13 +6871,30 @@
         <v>330</v>
       </c>
       <c r="G120" s="1">
-        <v>5149</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="shared" ca="1" si="8"/>
+        <v>327</v>
+      </c>
+      <c r="J120">
+        <f t="shared" ca="1" si="9"/>
+        <v>3984</v>
+      </c>
+      <c r="K120">
+        <f t="shared" ca="1" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="L120">
+        <f t="shared" ca="1" si="11"/>
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>331</v>
       </c>
@@ -4855,8 +6905,8 @@
         <v>325</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
       </c>
       <c r="E121" s="1">
         <v>1977</v>
@@ -4865,13 +6915,30 @@
         <v>332</v>
       </c>
       <c r="G121" s="1">
-        <v>8497</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" ca="1" si="8"/>
+        <v>830</v>
+      </c>
+      <c r="J121">
+        <f t="shared" ca="1" si="9"/>
+        <v>9846</v>
+      </c>
+      <c r="K121">
+        <f t="shared" ca="1" si="10"/>
+        <v>363</v>
+      </c>
+      <c r="L121">
+        <f t="shared" ca="1" si="11"/>
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>333</v>
       </c>
@@ -4882,8 +6949,8 @@
         <v>334</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
       </c>
       <c r="E122" s="1">
         <v>1980</v>
@@ -4892,13 +6959,30 @@
         <v>335</v>
       </c>
       <c r="G122" s="1">
-        <v>10545</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" ca="1" si="8"/>
+        <v>768</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ca="1" si="9"/>
+        <v>7250</v>
+      </c>
+      <c r="K122">
+        <f t="shared" ca="1" si="10"/>
+        <v>754</v>
+      </c>
+      <c r="L122">
+        <f t="shared" ca="1" si="11"/>
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>336</v>
       </c>
@@ -4909,8 +6993,8 @@
         <v>337</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>102</v>
       </c>
       <c r="E123" s="1">
         <v>1983</v>
@@ -4919,13 +7003,30 @@
         <v>335</v>
       </c>
       <c r="G123" s="1">
-        <v>12990</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>52</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" ca="1" si="8"/>
+        <v>982</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ca="1" si="9"/>
+        <v>8922</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ca="1" si="10"/>
+        <v>968</v>
+      </c>
+      <c r="L123">
+        <f t="shared" ca="1" si="11"/>
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>338</v>
       </c>
@@ -4936,8 +7037,8 @@
         <v>215</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
       </c>
       <c r="E124" s="1">
         <v>2011</v>
@@ -4946,13 +7047,30 @@
         <v>339</v>
       </c>
       <c r="G124" s="1">
-        <v>14280</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" ca="1" si="8"/>
+        <v>924</v>
+      </c>
+      <c r="J124">
+        <f t="shared" ca="1" si="9"/>
+        <v>9817</v>
+      </c>
+      <c r="K124">
+        <f t="shared" ca="1" si="10"/>
+        <v>335</v>
+      </c>
+      <c r="L124">
+        <f t="shared" ca="1" si="11"/>
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>340</v>
       </c>
@@ -4963,8 +7081,8 @@
         <v>341</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
       </c>
       <c r="E125" s="1">
         <v>2009</v>
@@ -4973,13 +7091,30 @@
         <v>182</v>
       </c>
       <c r="G125" s="1">
-        <v>4114</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="shared" ca="1" si="8"/>
+        <v>516</v>
+      </c>
+      <c r="J125">
+        <f t="shared" ca="1" si="9"/>
+        <v>6405</v>
+      </c>
+      <c r="K125">
+        <f t="shared" ca="1" si="10"/>
+        <v>356</v>
+      </c>
+      <c r="L125">
+        <f t="shared" ca="1" si="11"/>
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>342</v>
       </c>
@@ -4990,8 +7125,8 @@
         <v>50</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
       </c>
       <c r="E126" s="1">
         <v>1984</v>
@@ -5000,13 +7135,30 @@
         <v>343</v>
       </c>
       <c r="G126" s="1">
-        <v>6500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="shared" ca="1" si="8"/>
+        <v>631</v>
+      </c>
+      <c r="J126">
+        <f t="shared" ca="1" si="9"/>
+        <v>1738</v>
+      </c>
+      <c r="K126">
+        <f t="shared" ca="1" si="10"/>
+        <v>566</v>
+      </c>
+      <c r="L126">
+        <f t="shared" ca="1" si="11"/>
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>344</v>
       </c>
@@ -5017,8 +7169,8 @@
         <v>50</v>
       </c>
       <c r="D127" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
       </c>
       <c r="E127" s="1">
         <v>1991</v>
@@ -5027,13 +7179,30 @@
         <v>345</v>
       </c>
       <c r="G127" s="1">
-        <v>7541</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" ca="1" si="8"/>
+        <v>501</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ca="1" si="9"/>
+        <v>4505</v>
+      </c>
+      <c r="K127">
+        <f t="shared" ca="1" si="10"/>
+        <v>361</v>
+      </c>
+      <c r="L127">
+        <f t="shared" ca="1" si="11"/>
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>346</v>
       </c>
@@ -5044,8 +7213,8 @@
         <v>347</v>
       </c>
       <c r="D128" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
       </c>
       <c r="E128" s="1">
         <v>2003</v>
@@ -5054,13 +7223,30 @@
         <v>348</v>
       </c>
       <c r="G128" s="1">
-        <v>2293</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>93</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="shared" ca="1" si="8"/>
+        <v>468</v>
+      </c>
+      <c r="J128">
+        <f t="shared" ca="1" si="9"/>
+        <v>1183</v>
+      </c>
+      <c r="K128">
+        <f t="shared" ca="1" si="10"/>
+        <v>285</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ca="1" si="11"/>
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>349</v>
       </c>
@@ -5071,8 +7257,8 @@
         <v>350</v>
       </c>
       <c r="D129" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
       </c>
       <c r="E129" s="1">
         <v>2012</v>
@@ -5081,13 +7267,30 @@
         <v>351</v>
       </c>
       <c r="G129" s="1">
-        <v>4138</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="shared" ca="1" si="8"/>
+        <v>427</v>
+      </c>
+      <c r="J129">
+        <f t="shared" ca="1" si="9"/>
+        <v>4403</v>
+      </c>
+      <c r="K129">
+        <f t="shared" ca="1" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="L129">
+        <f t="shared" ca="1" si="11"/>
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>352</v>
       </c>
@@ -5098,8 +7301,8 @@
         <v>353</v>
       </c>
       <c r="D130" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>121</v>
       </c>
       <c r="E130" s="1">
         <v>2001</v>
@@ -5108,13 +7311,30 @@
         <v>354</v>
       </c>
       <c r="G130" s="1">
-        <v>7603</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>22</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f t="shared" ca="1" si="8"/>
+        <v>972</v>
+      </c>
+      <c r="J130">
+        <f t="shared" ca="1" si="9"/>
+        <v>1316</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ca="1" si="10"/>
+        <v>807</v>
+      </c>
+      <c r="L130">
+        <f t="shared" ca="1" si="11"/>
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>355</v>
       </c>
@@ -5125,8 +7345,8 @@
         <v>270</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" ref="D131:D140" ca="1" si="2">RANDBETWEEN(25,125)</f>
-        <v>86</v>
+        <f t="shared" ref="D131:D140" ca="1" si="12">RANDBETWEEN(25,125)</f>
+        <v>41</v>
       </c>
       <c r="E131" s="1">
         <v>2004</v>
@@ -5135,13 +7355,30 @@
         <v>356</v>
       </c>
       <c r="G131" s="1">
-        <v>5219</v>
+        <f t="shared" ref="G131:G140" ca="1" si="13">RANDBETWEEN(0,100)</f>
+        <v>22</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f t="shared" ref="I131:I140" ca="1" si="14">RANDBETWEEN(K131,1000)</f>
+        <v>928</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J140" ca="1" si="15">RANDBETWEEN(I131,10000)</f>
+        <v>4213</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K140" ca="1" si="16">RANDBETWEEN(25,1000)</f>
+        <v>691</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ref="L131:L140" ca="1" si="17">RANDBETWEEN(K131,10000)</f>
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>357</v>
       </c>
@@ -5152,8 +7389,8 @@
         <v>130</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>89</v>
       </c>
       <c r="E132" s="1">
         <v>2000</v>
@@ -5162,13 +7399,30 @@
         <v>358</v>
       </c>
       <c r="G132" s="1">
-        <v>7916</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f t="shared" ca="1" si="14"/>
+        <v>909</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ca="1" si="15"/>
+        <v>2164</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ca="1" si="16"/>
+        <v>811</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ca="1" si="17"/>
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>359</v>
       </c>
@@ -5179,8 +7433,8 @@
         <v>360</v>
       </c>
       <c r="D133" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>34</v>
       </c>
       <c r="E133" s="1">
         <v>2003</v>
@@ -5189,13 +7443,30 @@
         <v>361</v>
       </c>
       <c r="G133" s="1">
-        <v>6721</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>99</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f t="shared" ca="1" si="14"/>
+        <v>965</v>
+      </c>
+      <c r="J133">
+        <f t="shared" ca="1" si="15"/>
+        <v>7921</v>
+      </c>
+      <c r="K133">
+        <f t="shared" ca="1" si="16"/>
+        <v>625</v>
+      </c>
+      <c r="L133">
+        <f t="shared" ca="1" si="17"/>
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>362</v>
       </c>
@@ -5206,8 +7477,8 @@
         <v>360</v>
       </c>
       <c r="D134" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>60</v>
       </c>
       <c r="E134" s="1">
         <v>2006</v>
@@ -5216,13 +7487,30 @@
         <v>363</v>
       </c>
       <c r="G134" s="1">
-        <v>4472</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>74</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f t="shared" ca="1" si="14"/>
+        <v>496</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ca="1" si="15"/>
+        <v>3418</v>
+      </c>
+      <c r="K134">
+        <f t="shared" ca="1" si="16"/>
+        <v>341</v>
+      </c>
+      <c r="L134">
+        <f t="shared" ca="1" si="17"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>364</v>
       </c>
@@ -5233,8 +7521,8 @@
         <v>365</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>31</v>
       </c>
       <c r="E135" s="1">
         <v>2005</v>
@@ -5243,13 +7531,30 @@
         <v>366</v>
       </c>
       <c r="G135" s="1">
-        <v>5788</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>62</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f t="shared" ca="1" si="14"/>
+        <v>955</v>
+      </c>
+      <c r="J135">
+        <f t="shared" ca="1" si="15"/>
+        <v>4761</v>
+      </c>
+      <c r="K135">
+        <f t="shared" ca="1" si="16"/>
+        <v>933</v>
+      </c>
+      <c r="L135">
+        <f t="shared" ca="1" si="17"/>
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>367</v>
       </c>
@@ -5260,8 +7565,8 @@
         <v>368</v>
       </c>
       <c r="D136" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>56</v>
       </c>
       <c r="E136" s="1">
         <v>2004</v>
@@ -5270,13 +7575,30 @@
         <v>369</v>
       </c>
       <c r="G136" s="1">
-        <v>4646</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" ca="1" si="14"/>
+        <v>778</v>
+      </c>
+      <c r="J136">
+        <f t="shared" ca="1" si="15"/>
+        <v>3358</v>
+      </c>
+      <c r="K136">
+        <f t="shared" ca="1" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="L136">
+        <f t="shared" ca="1" si="17"/>
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>370</v>
       </c>
@@ -5287,8 +7609,8 @@
         <v>371</v>
       </c>
       <c r="D137" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>69</v>
       </c>
       <c r="E137" s="1">
         <v>2008</v>
@@ -5297,13 +7619,30 @@
         <v>372</v>
       </c>
       <c r="G137" s="1">
-        <v>14135</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f t="shared" ca="1" si="14"/>
+        <v>850</v>
+      </c>
+      <c r="J137">
+        <f t="shared" ca="1" si="15"/>
+        <v>5413</v>
+      </c>
+      <c r="K137">
+        <f t="shared" ca="1" si="16"/>
+        <v>741</v>
+      </c>
+      <c r="L137">
+        <f t="shared" ca="1" si="17"/>
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>373</v>
       </c>
@@ -5314,8 +7653,8 @@
         <v>19</v>
       </c>
       <c r="D138" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>50</v>
       </c>
       <c r="E138" s="1">
         <v>2013</v>
@@ -5324,13 +7663,30 @@
         <v>374</v>
       </c>
       <c r="G138" s="1">
-        <v>10355</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>79</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f t="shared" ca="1" si="14"/>
+        <v>957</v>
+      </c>
+      <c r="J138">
+        <f t="shared" ca="1" si="15"/>
+        <v>9257</v>
+      </c>
+      <c r="K138">
+        <f t="shared" ca="1" si="16"/>
+        <v>868</v>
+      </c>
+      <c r="L138">
+        <f t="shared" ca="1" si="17"/>
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>375</v>
       </c>
@@ -5341,8 +7697,8 @@
         <v>376</v>
       </c>
       <c r="D139" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
       </c>
       <c r="E139" s="1">
         <v>2012</v>
@@ -5351,13 +7707,30 @@
         <v>377</v>
       </c>
       <c r="G139" s="1">
-        <v>8862</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f t="shared" ca="1" si="14"/>
+        <v>888</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ca="1" si="15"/>
+        <v>4925</v>
+      </c>
+      <c r="K139">
+        <f t="shared" ca="1" si="16"/>
+        <v>773</v>
+      </c>
+      <c r="L139">
+        <f t="shared" ca="1" si="17"/>
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>378</v>
       </c>
@@ -5368,8 +7741,8 @@
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>85</v>
       </c>
       <c r="E140" s="1">
         <v>2013</v>
@@ -5378,10 +7751,27 @@
         <v>379</v>
       </c>
       <c r="G140" s="1">
-        <v>8377</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>89</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>182</v>
+      </c>
+      <c r="I140">
+        <f t="shared" ca="1" si="14"/>
+        <v>951</v>
+      </c>
+      <c r="J140">
+        <f t="shared" ca="1" si="15"/>
+        <v>6811</v>
+      </c>
+      <c r="K140">
+        <f t="shared" ca="1" si="16"/>
+        <v>599</v>
+      </c>
+      <c r="L140">
+        <f t="shared" ca="1" si="17"/>
+        <v>9830</v>
       </c>
     </row>
   </sheetData>

--- a/TPFINAL_Craicnet/bin/Debug/Peliculas.xlsx
+++ b/TPFINAL_Craicnet/bin/Debug/Peliculas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Previous\Universidad\2018\2018 - 2do cuatrimestre\LP2\TP Final\Craicnet\TPFINAL_Craicnet\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Craicnet\TPFINAL_Craicnet\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E582F-605A-40A7-A545-F43EAE7EFB43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1202,7 +1203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1252,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1262,6 +1263,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,7 +1293,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1603,24 +1605,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="22.68359375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1669,8 +1671,8 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">RANDBETWEEN(25,125)</f>
-        <v>49</v>
+        <f ca="1">RANDBETWEEN(25,45)</f>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
         <v>2006</v>
@@ -1680,29 +1682,29 @@
       </c>
       <c r="G2" s="1">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(K2,1000)</f>
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(I2,10000)</f>
-        <v>952</v>
+        <v>2238</v>
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(25,1000)</f>
-        <v>774</v>
+        <v>182</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(K2,10000)</f>
-        <v>4749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1713,8 +1715,8 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(25,125)</f>
-        <v>122</v>
+        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(25,45)</f>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>2008</v>
@@ -1724,29 +1726,29 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" ca="1" si="2">RANDBETWEEN(K3,1000)</f>
-        <v>957</v>
+        <v>735</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" ca="1" si="3">RANDBETWEEN(I3,10000)</f>
-        <v>4160</v>
+        <v>4325</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" ca="1" si="4">RANDBETWEEN(25,1000)</f>
-        <v>952</v>
+        <v>210</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" ca="1" si="5">RANDBETWEEN(K3,10000)</f>
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1760,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>2012</v>
@@ -1768,29 +1770,29 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>857</v>
+        <v>457</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>5467</v>
+        <v>6559</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>698</v>
+        <v>83</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="5"/>
-        <v>5242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1804,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>2015</v>
@@ -1812,29 +1814,29 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>946</v>
+        <v>750</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>3164</v>
+        <v>1832</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>908</v>
+        <v>267</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="5"/>
-        <v>6319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1">
         <v>2009</v>
@@ -1856,29 +1858,29 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>857</v>
+        <v>608</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>6077</v>
+        <v>6600</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>755</v>
+        <v>332</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +1892,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>2007</v>
@@ -1900,29 +1902,29 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>873</v>
+        <v>961</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>4352</v>
+        <v>7343</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>808</v>
+        <v>919</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="5"/>
-        <v>6178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1934,7 +1936,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>1999</v>
@@ -1944,29 +1946,29 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>857</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>4520</v>
+        <v>9296</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>127</v>
+        <v>834</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="5"/>
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +1980,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>1992</v>
@@ -1988,29 +1990,29 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>907</v>
+        <v>939</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>1299</v>
+        <v>7440</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>627</v>
+        <v>734</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="5"/>
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2022,7 +2024,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>2006</v>
@@ -2032,29 +2034,29 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>950</v>
+        <v>662</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>8127</v>
+        <v>9772</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>901</v>
+        <v>615</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="5"/>
-        <v>7862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,7 +2068,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>1997</v>
@@ -2076,29 +2078,29 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>617</v>
+        <v>797</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>4933</v>
+        <v>7780</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="5"/>
-        <v>7482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2110,7 +2112,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>1982</v>
@@ -2120,29 +2122,29 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>816</v>
+        <v>958</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>5131</v>
+        <v>9397</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>723</v>
+        <v>957</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="5"/>
-        <v>5070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2154,7 +2156,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>1979</v>
@@ -2164,29 +2166,29 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>6395</v>
+        <v>5851</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>389</v>
+        <v>273</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="5"/>
-        <v>7386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -2198,7 +2200,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>2012</v>
@@ -2208,29 +2210,29 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>959</v>
+        <v>661</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>1166</v>
+        <v>8154</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>749</v>
+        <v>321</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="5"/>
-        <v>7678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2242,7 +2244,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1">
         <v>2009</v>
@@ -2252,29 +2254,29 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>383</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>979</v>
+        <v>385</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>2215</v>
+        <v>422</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>727</v>
+        <v>339</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="5"/>
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -2286,7 +2288,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1">
         <v>2008</v>
@@ -2296,29 +2298,29 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>4626</v>
+        <v>3367</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>620</v>
+        <v>93</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="5"/>
-        <v>8821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2330,7 +2332,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
         <v>2005</v>
@@ -2340,29 +2342,29 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>789</v>
+        <v>165</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>5432</v>
+        <v>5751</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>685</v>
+        <v>115</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="5"/>
-        <v>689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -2374,7 +2376,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
         <v>2003</v>
@@ -2384,29 +2386,29 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>7145</v>
+        <v>5584</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>820</v>
+        <v>590</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2420,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <v>2010</v>
@@ -2428,29 +2430,29 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>305</v>
+        <v>900</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>6583</v>
+        <v>7137</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="5"/>
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -2462,7 +2464,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>2006</v>
@@ -2472,29 +2474,29 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>858</v>
+        <v>436</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>4549</v>
+        <v>8525</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>597</v>
+        <v>66</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="5"/>
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -2506,7 +2508,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>2011</v>
@@ -2516,29 +2518,29 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>9686</v>
+        <v>4813</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>336</v>
+        <v>958</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="5"/>
-        <v>8768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2550,7 +2552,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1">
         <v>1942</v>
@@ -2560,29 +2562,29 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>605</v>
+        <v>971</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>4227</v>
+        <v>3782</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="4"/>
-        <v>573</v>
+        <v>825</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="5"/>
-        <v>8558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -2594,7 +2596,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1">
         <v>1976</v>
@@ -2604,29 +2606,29 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>6299</v>
+        <v>5212</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="4"/>
-        <v>898</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="5"/>
-        <v>9263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2638,7 +2640,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>1950</v>
@@ -2648,29 +2650,29 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>804</v>
+        <v>404</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>4672</v>
+        <v>5285</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="4"/>
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="5"/>
-        <v>5721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -2682,7 +2684,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1">
         <v>2003</v>
@@ -2692,29 +2694,29 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>856</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
-        <v>1808</v>
+        <v>4000</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="4"/>
-        <v>210</v>
+        <v>554</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="5"/>
-        <v>9140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -2726,7 +2728,7 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1">
         <v>2008</v>
@@ -2736,29 +2738,29 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>996</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>7635</v>
+        <v>9596</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>967</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="5"/>
-        <v>4963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -2770,7 +2772,7 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1">
         <v>2006</v>
@@ -2780,29 +2782,29 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>888</v>
+        <v>736</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>7513</v>
+        <v>7687</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="4"/>
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="5"/>
-        <v>6228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2814,7 +2816,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1">
         <v>1997</v>
@@ -2824,29 +2826,29 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>748</v>
+        <v>989</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>7106</v>
+        <v>8721</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="4"/>
-        <v>643</v>
+        <v>958</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="5"/>
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -2858,7 +2860,7 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
         <v>2003</v>
@@ -2868,29 +2870,29 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>719</v>
+        <v>441</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
-        <v>3680</v>
+        <v>3115</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="4"/>
-        <v>675</v>
+        <v>385</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="5"/>
-        <v>8574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2902,7 +2904,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1">
         <v>1982</v>
@@ -2912,29 +2914,29 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="2"/>
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>4432</v>
+        <v>1771</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="4"/>
-        <v>978</v>
+        <v>880</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="5"/>
-        <v>9455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +2948,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
         <v>2008</v>
@@ -2956,29 +2958,29 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="2"/>
-        <v>875</v>
+        <v>836</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>3928</v>
+        <v>9854</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="4"/>
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="5"/>
-        <v>6338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -2990,7 +2992,7 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1">
         <v>2013</v>
@@ -3000,29 +3002,29 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
-        <v>812</v>
+        <v>720</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>1825</v>
+        <v>2450</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="4"/>
-        <v>449</v>
+        <v>588</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="5"/>
-        <v>7058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -3034,7 +3036,7 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1">
         <v>1996</v>
@@ -3044,29 +3046,29 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="2"/>
-        <v>990</v>
+        <v>863</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>1670</v>
+        <v>6878</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="4"/>
-        <v>988</v>
+        <v>577</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="5"/>
-        <v>8523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -3078,7 +3080,7 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1">
         <v>2005</v>
@@ -3088,29 +3090,29 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="2"/>
-        <v>769</v>
+        <v>848</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>5834</v>
+        <v>6584</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="4"/>
-        <v>597</v>
+        <v>424</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="5"/>
-        <v>7535</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3122,7 +3124,7 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1">
         <v>2007</v>
@@ -3132,29 +3134,29 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>963</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>9157</v>
+        <v>2689</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>915</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="5"/>
-        <v>6745</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -3166,7 +3168,7 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <v>1996</v>
@@ -3176,29 +3178,29 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="2"/>
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>3259</v>
+        <v>8065</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="4"/>
-        <v>573</v>
+        <v>940</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="5"/>
-        <v>9617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -3210,7 +3212,7 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1">
         <v>2001</v>
@@ -3220,29 +3222,29 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="2"/>
-        <v>784</v>
+        <v>936</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>8623</v>
+        <v>3383</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="4"/>
-        <v>755</v>
+        <v>166</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="5"/>
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
@@ -3254,7 +3256,7 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1">
         <v>2007</v>
@@ -3264,29 +3266,29 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="2"/>
-        <v>838</v>
+        <v>954</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>4703</v>
+        <v>3431</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="4"/>
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="5"/>
-        <v>7538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -3298,7 +3300,7 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E39" s="1">
         <v>2002</v>
@@ -3308,29 +3310,29 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="2"/>
-        <v>805</v>
+        <v>458</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>4201</v>
+        <v>5491</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="4"/>
-        <v>524</v>
+        <v>237</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="5"/>
-        <v>5154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -3342,7 +3344,7 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1">
         <v>2007</v>
@@ -3352,29 +3354,29 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="2"/>
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
-        <v>1671</v>
+        <v>7712</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="4"/>
-        <v>367</v>
+        <v>795</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="5"/>
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -3386,7 +3388,7 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1">
         <v>2009</v>
@@ -3396,29 +3398,29 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="2"/>
-        <v>973</v>
+        <v>591</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>1764</v>
+        <v>9097</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="4"/>
-        <v>899</v>
+        <v>141</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="5"/>
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -3430,7 +3432,7 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1">
         <v>2013</v>
@@ -3440,29 +3442,29 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="2"/>
-        <v>705</v>
+        <v>993</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>1281</v>
+        <v>2100</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="4"/>
-        <v>215</v>
+        <v>837</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3474,7 +3476,7 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1">
         <v>2008</v>
@@ -3484,29 +3486,29 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="2"/>
-        <v>583</v>
+        <v>494</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>9137</v>
+        <v>9416</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="4"/>
-        <v>458</v>
+        <v>340</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="5"/>
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3518,7 +3520,7 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1">
         <v>2006</v>
@@ -3528,29 +3530,29 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <v>981</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>6707</v>
+        <v>4310</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="4"/>
-        <v>102</v>
+        <v>981</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="5"/>
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
@@ -3562,7 +3564,7 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1">
         <v>2001</v>
@@ -3572,29 +3574,29 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="2"/>
-        <v>867</v>
+        <v>921</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>4255</v>
+        <v>1753</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="4"/>
-        <v>520</v>
+        <v>905</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="5"/>
-        <v>989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
@@ -3606,7 +3608,7 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1">
         <v>2002</v>
@@ -3616,29 +3618,29 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="2"/>
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>6217</v>
+        <v>2540</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="4"/>
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="5"/>
-        <v>4851</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -3650,7 +3652,7 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1">
         <v>2004</v>
@@ -3660,29 +3662,29 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="2"/>
-        <v>748</v>
+        <v>705</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>3160</v>
+        <v>1110</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="4"/>
-        <v>708</v>
+        <v>155</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="5"/>
-        <v>7863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3694,7 +3696,7 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1">
         <v>2005</v>
@@ -3704,29 +3706,29 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="2"/>
-        <v>991</v>
+        <v>915</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>7450</v>
+        <v>1292</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="4"/>
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="5"/>
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
@@ -3738,7 +3740,7 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E49" s="1">
         <v>2007</v>
@@ -3748,29 +3750,29 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="2"/>
-        <v>975</v>
+        <v>919</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>2224</v>
+        <v>3168</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="4"/>
-        <v>375</v>
+        <v>874</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="5"/>
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3782,7 +3784,7 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="E50" s="1">
         <v>2009</v>
@@ -3792,29 +3794,29 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="2"/>
-        <v>989</v>
+        <v>588</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>8240</v>
+        <v>7431</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="4"/>
-        <v>553</v>
+        <v>262</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="5"/>
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -3826,7 +3828,7 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1">
         <v>2010</v>
@@ -3836,29 +3838,29 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="2"/>
-        <v>311</v>
+        <v>963</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>3732</v>
+        <v>3772</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="4"/>
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="5"/>
-        <v>8781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
@@ -3870,7 +3872,7 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1">
         <v>2010</v>
@@ -3880,29 +3882,29 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="2"/>
-        <v>905</v>
+        <v>752</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>4090</v>
+        <v>2380</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>633</v>
+        <v>721</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="5"/>
-        <v>9685</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3914,7 +3916,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="E53" s="1">
         <v>2007</v>
@@ -3924,29 +3926,29 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="2"/>
-        <v>717</v>
+        <v>993</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>3890</v>
+        <v>4312</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>266</v>
+        <v>958</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="5"/>
-        <v>3707</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
@@ -3958,7 +3960,7 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E54" s="1">
         <v>2004</v>
@@ -3968,29 +3970,29 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="2"/>
-        <v>891</v>
+        <v>795</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>9070</v>
+        <v>3397</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="4"/>
-        <v>569</v>
+        <v>200</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="5"/>
-        <v>8482</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -4002,7 +4004,7 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E55" s="1">
         <v>2002</v>
@@ -4012,29 +4014,29 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="2"/>
-        <v>850</v>
+        <v>891</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>4426</v>
+        <v>6194</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
-        <v>505</v>
+        <v>704</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="5"/>
-        <v>6882</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -4046,7 +4048,7 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1">
         <v>2006</v>
@@ -4056,18 +4058,18 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="2"/>
-        <v>433</v>
+        <v>194</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>3803</v>
+        <v>3017</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
@@ -4075,10 +4077,10 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="5"/>
-        <v>9003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -4090,7 +4092,7 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="1">
         <v>2009</v>
@@ -4100,29 +4102,29 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="2"/>
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>2335</v>
+        <v>4475</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>218</v>
+        <v>880</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="5"/>
-        <v>5534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -4134,7 +4136,7 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E58" s="1">
         <v>2012</v>
@@ -4144,29 +4146,29 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="2"/>
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>6326</v>
+        <v>7959</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
-        <v>701</v>
+        <v>56</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="5"/>
-        <v>9298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
@@ -4178,7 +4180,7 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1">
         <v>2014</v>
@@ -4188,29 +4190,29 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="2"/>
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="3"/>
-        <v>6322</v>
+        <v>2804</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="4"/>
-        <v>462</v>
+        <v>218</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="5"/>
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -4222,7 +4224,7 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1">
         <v>2008</v>
@@ -4232,29 +4234,29 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="2"/>
-        <v>263</v>
+        <v>891</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="3"/>
-        <v>7514</v>
+        <v>5760</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>381</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="5"/>
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -4266,7 +4268,7 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E61" s="1">
         <v>2003</v>
@@ -4276,29 +4278,29 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="2"/>
-        <v>555</v>
+        <v>931</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="3"/>
-        <v>4933</v>
+        <v>5122</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="4"/>
-        <v>111</v>
+        <v>857</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="5"/>
-        <v>7233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6714</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -4310,7 +4312,7 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E62" s="1">
         <v>2004</v>
@@ -4320,29 +4322,29 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="2"/>
-        <v>893</v>
+        <v>447</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="3"/>
-        <v>1498</v>
+        <v>6444</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="4"/>
-        <v>866</v>
+        <v>60</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="5"/>
-        <v>4789</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -4354,7 +4356,7 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1">
         <v>2008</v>
@@ -4364,29 +4366,29 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="2"/>
-        <v>428</v>
+        <v>708</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="3"/>
-        <v>3506</v>
+        <v>5537</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="4"/>
-        <v>349</v>
+        <v>624</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="5"/>
-        <v>7563</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -4398,7 +4400,7 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E64" s="1">
         <v>2006</v>
@@ -4408,29 +4410,29 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="2"/>
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="3"/>
-        <v>4979</v>
+        <v>4893</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="4"/>
-        <v>159</v>
+        <v>706</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="5"/>
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>186</v>
       </c>
@@ -4442,7 +4444,7 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E65" s="1">
         <v>2013</v>
@@ -4452,29 +4454,29 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="2"/>
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="3"/>
-        <v>8513</v>
+        <v>7164</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="4"/>
-        <v>968</v>
+        <v>855</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="5"/>
-        <v>4969</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>189</v>
       </c>
@@ -4486,7 +4488,7 @@
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E66" s="1">
         <v>2001</v>
@@ -4496,29 +4498,29 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="2"/>
-        <v>320</v>
+        <v>763</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="3"/>
-        <v>6343</v>
+        <v>1531</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>558</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="5"/>
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>192</v>
       </c>
@@ -4529,8 +4531,8 @@
         <v>190</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D130" ca="1" si="6">RANDBETWEEN(25,125)</f>
-        <v>41</v>
+        <f t="shared" ref="D67:D130" ca="1" si="6">RANDBETWEEN(25,45)</f>
+        <v>25</v>
       </c>
       <c r="E67" s="1">
         <v>2002</v>
@@ -4540,29 +4542,29 @@
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G130" ca="1" si="7">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" ca="1" si="8">RANDBETWEEN(K67,1000)</f>
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J130" ca="1" si="9">RANDBETWEEN(I67,10000)</f>
-        <v>3525</v>
+        <v>8479</v>
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K130" ca="1" si="10">RANDBETWEEN(25,1000)</f>
-        <v>805</v>
+        <v>299</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" ca="1" si="11">RANDBETWEEN(K67,10000)</f>
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -4574,7 +4576,7 @@
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E68" s="1">
         <v>2003</v>
@@ -4584,29 +4586,29 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>136</v>
+        <v>918</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="9"/>
-        <v>8219</v>
+        <v>3861</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>798</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="11"/>
-        <v>4833</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>195</v>
       </c>
@@ -4618,7 +4620,7 @@
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1">
         <v>1999</v>
@@ -4628,29 +4630,29 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>992</v>
+        <v>315</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="9"/>
-        <v>2676</v>
+        <v>6184</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="10"/>
-        <v>969</v>
+        <v>121</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="11"/>
-        <v>9770</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>198</v>
       </c>
@@ -4662,7 +4664,7 @@
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E70" s="1">
         <v>2003</v>
@@ -4672,29 +4674,29 @@
       </c>
       <c r="G70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>387</v>
+        <v>933</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="9"/>
-        <v>2375</v>
+        <v>9452</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="10"/>
-        <v>290</v>
+        <v>927</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="11"/>
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -4706,7 +4708,7 @@
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1">
         <v>2003</v>
@@ -4716,29 +4718,29 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="9"/>
-        <v>3044</v>
+        <v>7472</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="10"/>
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="11"/>
-        <v>5450</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>202</v>
       </c>
@@ -4750,7 +4752,7 @@
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E72" s="1">
         <v>1964</v>
@@ -4760,29 +4762,29 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="9"/>
-        <v>7820</v>
+        <v>9180</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="10"/>
-        <v>757</v>
+        <v>962</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="11"/>
-        <v>5232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>205</v>
       </c>
@@ -4804,29 +4806,29 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>849</v>
+        <v>764</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="9"/>
-        <v>1385</v>
+        <v>8723</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="10"/>
-        <v>239</v>
+        <v>491</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="11"/>
-        <v>9445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -4838,7 +4840,7 @@
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="E74" s="1">
         <v>1996</v>
@@ -4848,29 +4850,29 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>689</v>
+        <v>495</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="9"/>
-        <v>4041</v>
+        <v>5780</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>486</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="11"/>
-        <v>6741</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -4882,7 +4884,7 @@
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1">
         <v>2000</v>
@@ -4892,29 +4894,29 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>481</v>
+        <v>588</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="9"/>
-        <v>1748</v>
+        <v>4491</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="10"/>
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="11"/>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>214</v>
       </c>
@@ -4926,7 +4928,7 @@
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E76" s="1">
         <v>2006</v>
@@ -4936,29 +4938,29 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>985</v>
+        <v>688</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="9"/>
-        <v>6039</v>
+        <v>7177</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="10"/>
-        <v>913</v>
+        <v>560</v>
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="11"/>
-        <v>7564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>217</v>
       </c>
@@ -4970,7 +4972,7 @@
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E77" s="1">
         <v>2003</v>
@@ -4980,29 +4982,29 @@
       </c>
       <c r="G77" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>741</v>
+        <v>999</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="9"/>
-        <v>6270</v>
+        <v>5336</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="10"/>
-        <v>477</v>
+        <v>986</v>
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="11"/>
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -5014,7 +5016,7 @@
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E78" s="1">
         <v>2001</v>
@@ -5024,29 +5026,29 @@
       </c>
       <c r="G78" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>797</v>
+        <v>745</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="9"/>
-        <v>2899</v>
+        <v>2513</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>722</v>
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="11"/>
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -5058,7 +5060,7 @@
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E79" s="1">
         <v>2013</v>
@@ -5068,29 +5070,29 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>297</v>
+        <v>728</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="9"/>
-        <v>8181</v>
+        <v>6812</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="10"/>
-        <v>142</v>
+        <v>455</v>
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="11"/>
-        <v>6724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>225</v>
       </c>
@@ -5102,7 +5104,7 @@
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="E80" s="1">
         <v>2005</v>
@@ -5112,29 +5114,29 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="9"/>
-        <v>8616</v>
+        <v>8420</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="10"/>
-        <v>930</v>
+        <v>476</v>
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="11"/>
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>228</v>
       </c>
@@ -5146,7 +5148,7 @@
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E81" s="1">
         <v>1998</v>
@@ -5156,29 +5158,29 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>933</v>
+        <v>501</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="9"/>
-        <v>9923</v>
+        <v>6080</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>355</v>
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="11"/>
-        <v>953</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -5190,7 +5192,7 @@
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E82" s="1">
         <v>2012</v>
@@ -5200,29 +5202,29 @@
       </c>
       <c r="G82" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="9"/>
-        <v>6925</v>
+        <v>8143</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="10"/>
-        <v>597</v>
+        <v>257</v>
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="11"/>
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>234</v>
       </c>
@@ -5234,7 +5236,7 @@
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E83" s="1">
         <v>2009</v>
@@ -5244,29 +5246,29 @@
       </c>
       <c r="G83" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>905</v>
+        <v>957</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="9"/>
-        <v>1733</v>
+        <v>2344</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="10"/>
-        <v>894</v>
+        <v>754</v>
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="11"/>
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>237</v>
       </c>
@@ -5278,7 +5280,7 @@
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E84" s="1">
         <v>2013</v>
@@ -5288,29 +5290,29 @@
       </c>
       <c r="G84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>745</v>
+        <v>964</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="9"/>
-        <v>794</v>
+        <v>5732</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="10"/>
-        <v>681</v>
+        <v>874</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="11"/>
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
@@ -5322,7 +5324,7 @@
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E85" s="1">
         <v>2001</v>
@@ -5332,29 +5334,29 @@
       </c>
       <c r="G85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>759</v>
+        <v>876</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="9"/>
-        <v>8079</v>
+        <v>8582</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="10"/>
-        <v>502</v>
+        <v>800</v>
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="11"/>
-        <v>5277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>244</v>
       </c>
@@ -5366,7 +5368,7 @@
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E86" s="1">
         <v>2004</v>
@@ -5376,29 +5378,29 @@
       </c>
       <c r="G86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>501</v>
+        <v>790</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="9"/>
-        <v>4180</v>
+        <v>6883</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="10"/>
-        <v>281</v>
+        <v>686</v>
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="11"/>
-        <v>569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>246</v>
       </c>
@@ -5410,7 +5412,7 @@
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="E87" s="1">
         <v>2007</v>
@@ -5420,29 +5422,29 @@
       </c>
       <c r="G87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="9"/>
-        <v>6851</v>
+        <v>5612</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="11"/>
-        <v>7668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>248</v>
       </c>
@@ -5454,7 +5456,7 @@
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E88" s="1">
         <v>2007</v>
@@ -5464,29 +5466,29 @@
       </c>
       <c r="G88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>989</v>
+        <v>694</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="9"/>
-        <v>4098</v>
+        <v>6919</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="10"/>
-        <v>862</v>
+        <v>351</v>
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="11"/>
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>251</v>
       </c>
@@ -5498,7 +5500,7 @@
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E89" s="1">
         <v>2001</v>
@@ -5508,29 +5510,29 @@
       </c>
       <c r="G89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="9"/>
-        <v>5444</v>
+        <v>3791</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="10"/>
-        <v>213</v>
+        <v>769</v>
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="11"/>
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>254</v>
       </c>
@@ -5542,7 +5544,7 @@
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E90" s="1">
         <v>2012</v>
@@ -5552,29 +5554,29 @@
       </c>
       <c r="G90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>840</v>
+        <v>367</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="9"/>
-        <v>9465</v>
+        <v>6738</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="10"/>
-        <v>703</v>
+        <v>235</v>
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="11"/>
-        <v>5552</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>256</v>
       </c>
@@ -5586,7 +5588,7 @@
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E91" s="1">
         <v>2003</v>
@@ -5596,29 +5598,29 @@
       </c>
       <c r="G91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>921</v>
+        <v>500</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="9"/>
-        <v>5323</v>
+        <v>5594</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="10"/>
-        <v>865</v>
+        <v>257</v>
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="11"/>
-        <v>6706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>259</v>
       </c>
@@ -5630,7 +5632,7 @@
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E92" s="1">
         <v>2006</v>
@@ -5640,29 +5642,29 @@
       </c>
       <c r="G92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>488</v>
+        <v>876</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="9"/>
-        <v>5374</v>
+        <v>1651</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>773</v>
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="11"/>
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>261</v>
       </c>
@@ -5674,7 +5676,7 @@
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E93" s="1">
         <v>2007</v>
@@ -5684,29 +5686,29 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>911</v>
+        <v>993</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="9"/>
-        <v>1580</v>
+        <v>5048</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>985</v>
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="11"/>
-        <v>6848</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>263</v>
       </c>
@@ -5718,7 +5720,7 @@
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E94" s="1">
         <v>2011</v>
@@ -5728,29 +5730,29 @@
       </c>
       <c r="G94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>395</v>
+        <v>489</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="9"/>
-        <v>3355</v>
+        <v>9322</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="10"/>
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="11"/>
-        <v>9470</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>266</v>
       </c>
@@ -5762,7 +5764,7 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E95" s="1">
         <v>2000</v>
@@ -5772,29 +5774,29 @@
       </c>
       <c r="G95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>901</v>
+        <v>662</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="9"/>
-        <v>5571</v>
+        <v>6226</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="10"/>
-        <v>845</v>
+        <v>631</v>
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="11"/>
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>269</v>
       </c>
@@ -5806,7 +5808,7 @@
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E96" s="1">
         <v>2006</v>
@@ -5816,29 +5818,29 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>772</v>
+        <v>325</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="9"/>
-        <v>3897</v>
+        <v>2610</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="10"/>
-        <v>380</v>
+        <v>49</v>
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="11"/>
-        <v>8542</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>272</v>
       </c>
@@ -5850,7 +5852,7 @@
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E97" s="1">
         <v>2007</v>
@@ -5860,29 +5862,29 @@
       </c>
       <c r="G97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>879</v>
+        <v>838</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="9"/>
-        <v>7707</v>
+        <v>5248</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="10"/>
-        <v>229</v>
+        <v>610</v>
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="11"/>
-        <v>6689</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>275</v>
       </c>
@@ -5894,7 +5896,7 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E98" s="1">
         <v>2010</v>
@@ -5904,29 +5906,29 @@
       </c>
       <c r="G98" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>776</v>
+        <v>548</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="9"/>
-        <v>8132</v>
+        <v>5323</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="10"/>
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="11"/>
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>277</v>
       </c>
@@ -5938,7 +5940,7 @@
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1">
         <v>2007</v>
@@ -5948,29 +5950,29 @@
       </c>
       <c r="G99" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>621</v>
+        <v>769</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="9"/>
-        <v>882</v>
+        <v>7459</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="10"/>
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="11"/>
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>279</v>
       </c>
@@ -5982,7 +5984,7 @@
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E100" s="1">
         <v>2008</v>
@@ -5992,29 +5994,29 @@
       </c>
       <c r="G100" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="8"/>
-        <v>850</v>
+        <v>512</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="9"/>
-        <v>3300</v>
+        <v>2478</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="10"/>
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="11"/>
-        <v>5401</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>282</v>
       </c>
@@ -6026,7 +6028,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E101" s="1">
         <v>2000</v>
@@ -6036,29 +6038,29 @@
       </c>
       <c r="G101" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="8"/>
-        <v>672</v>
+        <v>517</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="9"/>
-        <v>4945</v>
+        <v>1806</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="10"/>
-        <v>138</v>
+        <v>398</v>
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="11"/>
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>285</v>
       </c>
@@ -6070,7 +6072,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E102" s="1">
         <v>1992</v>
@@ -6080,29 +6082,29 @@
       </c>
       <c r="G102" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="8"/>
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="9"/>
-        <v>4965</v>
+        <v>9883</v>
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="10"/>
-        <v>756</v>
+        <v>663</v>
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="11"/>
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>287</v>
       </c>
@@ -6114,7 +6116,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E103" s="1">
         <v>2002</v>
@@ -6124,29 +6126,29 @@
       </c>
       <c r="G103" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="8"/>
-        <v>585</v>
+        <v>474</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="9"/>
-        <v>5521</v>
+        <v>2654</v>
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="10"/>
-        <v>564</v>
+        <v>170</v>
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="11"/>
-        <v>6335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>290</v>
       </c>
@@ -6158,7 +6160,7 @@
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E104" s="1">
         <v>2004</v>
@@ -6168,29 +6170,29 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="8"/>
-        <v>956</v>
+        <v>623</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="9"/>
-        <v>2082</v>
+        <v>3884</v>
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="10"/>
-        <v>816</v>
+        <v>536</v>
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="11"/>
-        <v>7830</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>293</v>
       </c>
@@ -6202,7 +6204,7 @@
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E105" s="1">
         <v>2007</v>
@@ -6212,29 +6214,29 @@
       </c>
       <c r="G105" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="8"/>
-        <v>945</v>
+        <v>526</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="9"/>
-        <v>4357</v>
+        <v>929</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="10"/>
-        <v>643</v>
+        <v>323</v>
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="11"/>
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>296</v>
       </c>
@@ -6246,7 +6248,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E106" s="1">
         <v>2011</v>
@@ -6256,29 +6258,29 @@
       </c>
       <c r="G106" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="8"/>
-        <v>566</v>
+        <v>981</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="9"/>
-        <v>2719</v>
+        <v>4139</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>907</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="11"/>
-        <v>6618</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>298</v>
       </c>
@@ -6290,7 +6292,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E107" s="1">
         <v>2004</v>
@@ -6300,29 +6302,29 @@
       </c>
       <c r="G107" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I107">
         <f t="shared" ca="1" si="8"/>
-        <v>551</v>
+        <v>365</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="9"/>
-        <v>5957</v>
+        <v>4564</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="10"/>
-        <v>476</v>
+        <v>309</v>
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="11"/>
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>300</v>
       </c>
@@ -6334,7 +6336,7 @@
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="E108" s="1">
         <v>2010</v>
@@ -6344,29 +6346,29 @@
       </c>
       <c r="G108" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I108">
         <f t="shared" ca="1" si="8"/>
-        <v>546</v>
+        <v>918</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="9"/>
-        <v>3358</v>
+        <v>2163</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>883</v>
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="11"/>
-        <v>9693</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>301</v>
       </c>
@@ -6378,7 +6380,7 @@
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="E109" s="1">
         <v>1991</v>
@@ -6388,29 +6390,29 @@
       </c>
       <c r="G109" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I109">
         <f t="shared" ca="1" si="8"/>
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="9"/>
-        <v>5191</v>
+        <v>2626</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="10"/>
-        <v>731</v>
+        <v>56</v>
       </c>
       <c r="L109">
         <f t="shared" ca="1" si="11"/>
-        <v>5170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8569</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>304</v>
       </c>
@@ -6422,7 +6424,7 @@
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1">
         <v>1998</v>
@@ -6432,29 +6434,29 @@
       </c>
       <c r="G110" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I110">
         <f t="shared" ca="1" si="8"/>
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="9"/>
-        <v>9696</v>
+        <v>7875</v>
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="10"/>
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="L110">
         <f t="shared" ca="1" si="11"/>
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>307</v>
       </c>
@@ -6466,7 +6468,7 @@
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1">
         <v>2001</v>
@@ -6476,29 +6478,29 @@
       </c>
       <c r="G111" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I111">
         <f t="shared" ca="1" si="8"/>
-        <v>654</v>
+        <v>928</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="9"/>
-        <v>5185</v>
+        <v>8226</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>888</v>
       </c>
       <c r="L111">
         <f t="shared" ca="1" si="11"/>
-        <v>4886</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>310</v>
       </c>
@@ -6510,7 +6512,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E112" s="1">
         <v>2004</v>
@@ -6520,29 +6522,29 @@
       </c>
       <c r="G112" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I112">
         <f t="shared" ca="1" si="8"/>
-        <v>898</v>
+        <v>855</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="9"/>
-        <v>4443</v>
+        <v>7322</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="10"/>
-        <v>736</v>
+        <v>831</v>
       </c>
       <c r="L112">
         <f t="shared" ca="1" si="11"/>
-        <v>5876</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>312</v>
       </c>
@@ -6554,7 +6556,7 @@
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E113" s="1">
         <v>2010</v>
@@ -6564,29 +6566,29 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I113">
         <f t="shared" ca="1" si="8"/>
-        <v>953</v>
+        <v>574</v>
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="9"/>
-        <v>8213</v>
+        <v>964</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="10"/>
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="L113">
         <f t="shared" ca="1" si="11"/>
-        <v>9931</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>315</v>
       </c>
@@ -6598,7 +6600,7 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E114" s="1">
         <v>2002</v>
@@ -6608,29 +6610,29 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I114">
         <f t="shared" ca="1" si="8"/>
-        <v>999</v>
+        <v>736</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="9"/>
-        <v>8279</v>
+        <v>4851</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="10"/>
-        <v>999</v>
+        <v>453</v>
       </c>
       <c r="L114">
         <f t="shared" ca="1" si="11"/>
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>317</v>
       </c>
@@ -6642,7 +6644,7 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E115" s="1">
         <v>2002</v>
@@ -6652,29 +6654,29 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I115">
         <f t="shared" ca="1" si="8"/>
-        <v>921</v>
+        <v>539</v>
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="9"/>
-        <v>9726</v>
+        <v>8287</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="10"/>
-        <v>890</v>
+        <v>242</v>
       </c>
       <c r="L115">
         <f t="shared" ca="1" si="11"/>
-        <v>6807</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>320</v>
       </c>
@@ -6686,7 +6688,7 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E116" s="1">
         <v>2004</v>
@@ -6696,29 +6698,29 @@
       </c>
       <c r="G116" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I116">
         <f t="shared" ca="1" si="8"/>
-        <v>843</v>
+        <v>943</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="9"/>
-        <v>4420</v>
+        <v>4061</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="10"/>
-        <v>702</v>
+        <v>252</v>
       </c>
       <c r="L116">
         <f t="shared" ca="1" si="11"/>
-        <v>7464</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>322</v>
       </c>
@@ -6730,7 +6732,7 @@
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E117" s="1">
         <v>2007</v>
@@ -6740,29 +6742,29 @@
       </c>
       <c r="G117" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I117">
         <f t="shared" ca="1" si="8"/>
-        <v>791</v>
+        <v>485</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="9"/>
-        <v>9438</v>
+        <v>998</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="10"/>
-        <v>411</v>
+        <v>267</v>
       </c>
       <c r="L117">
         <f t="shared" ca="1" si="11"/>
-        <v>6699</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>324</v>
       </c>
@@ -6774,7 +6776,7 @@
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E118" s="1">
         <v>1999</v>
@@ -6784,29 +6786,29 @@
       </c>
       <c r="G118" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I118">
         <f t="shared" ca="1" si="8"/>
-        <v>960</v>
+        <v>411</v>
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="9"/>
-        <v>1965</v>
+        <v>2987</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="10"/>
-        <v>900</v>
+        <v>149</v>
       </c>
       <c r="L118">
         <f t="shared" ca="1" si="11"/>
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>327</v>
       </c>
@@ -6818,7 +6820,7 @@
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E119" s="1">
         <v>2002</v>
@@ -6828,29 +6830,29 @@
       </c>
       <c r="G119" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="8"/>
-        <v>519</v>
+        <v>708</v>
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="9"/>
-        <v>8091</v>
+        <v>7586</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="10"/>
-        <v>286</v>
+        <v>608</v>
       </c>
       <c r="L119">
         <f t="shared" ca="1" si="11"/>
-        <v>4650</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>329</v>
       </c>
@@ -6862,7 +6864,7 @@
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E120" s="1">
         <v>2005</v>
@@ -6872,29 +6874,29 @@
       </c>
       <c r="G120" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="8"/>
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="9"/>
-        <v>3984</v>
+        <v>9442</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="L120">
         <f t="shared" ca="1" si="11"/>
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>331</v>
       </c>
@@ -6906,7 +6908,7 @@
       </c>
       <c r="D121" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E121" s="1">
         <v>1977</v>
@@ -6916,29 +6918,29 @@
       </c>
       <c r="G121" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I121">
         <f t="shared" ca="1" si="8"/>
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="9"/>
-        <v>9846</v>
+        <v>9325</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="10"/>
-        <v>363</v>
+        <v>526</v>
       </c>
       <c r="L121">
         <f t="shared" ca="1" si="11"/>
-        <v>6951</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>333</v>
       </c>
@@ -6950,7 +6952,7 @@
       </c>
       <c r="D122" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E122" s="1">
         <v>1980</v>
@@ -6960,29 +6962,29 @@
       </c>
       <c r="G122" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I122">
         <f t="shared" ca="1" si="8"/>
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="9"/>
-        <v>7250</v>
+        <v>5255</v>
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="10"/>
-        <v>754</v>
+        <v>698</v>
       </c>
       <c r="L122">
         <f t="shared" ca="1" si="11"/>
-        <v>4609</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>336</v>
       </c>
@@ -6994,7 +6996,7 @@
       </c>
       <c r="D123" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E123" s="1">
         <v>1983</v>
@@ -7004,29 +7006,29 @@
       </c>
       <c r="G123" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I123">
         <f t="shared" ca="1" si="8"/>
-        <v>982</v>
+        <v>880</v>
       </c>
       <c r="J123">
         <f t="shared" ca="1" si="9"/>
-        <v>8922</v>
+        <v>1029</v>
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="10"/>
-        <v>968</v>
+        <v>52</v>
       </c>
       <c r="L123">
         <f t="shared" ca="1" si="11"/>
-        <v>8712</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9983</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>338</v>
       </c>
@@ -7038,7 +7040,7 @@
       </c>
       <c r="D124" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E124" s="1">
         <v>2011</v>
@@ -7048,29 +7050,29 @@
       </c>
       <c r="G124" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I124">
         <f t="shared" ca="1" si="8"/>
-        <v>924</v>
+        <v>830</v>
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="9"/>
-        <v>9817</v>
+        <v>2608</v>
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="10"/>
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="L124">
         <f t="shared" ca="1" si="11"/>
-        <v>6466</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>340</v>
       </c>
@@ -7082,7 +7084,7 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E125" s="1">
         <v>2009</v>
@@ -7092,29 +7094,29 @@
       </c>
       <c r="G125" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I125">
         <f t="shared" ca="1" si="8"/>
-        <v>516</v>
+        <v>802</v>
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="9"/>
-        <v>6405</v>
+        <v>9879</v>
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="10"/>
-        <v>356</v>
+        <v>711</v>
       </c>
       <c r="L125">
         <f t="shared" ca="1" si="11"/>
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>342</v>
       </c>
@@ -7126,7 +7128,7 @@
       </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E126" s="1">
         <v>1984</v>
@@ -7136,29 +7138,29 @@
       </c>
       <c r="G126" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I126">
         <f t="shared" ca="1" si="8"/>
-        <v>631</v>
+        <v>283</v>
       </c>
       <c r="J126">
         <f t="shared" ca="1" si="9"/>
-        <v>1738</v>
+        <v>6818</v>
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="10"/>
-        <v>566</v>
+        <v>228</v>
       </c>
       <c r="L126">
         <f t="shared" ca="1" si="11"/>
-        <v>6064</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8826</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>344</v>
       </c>
@@ -7170,7 +7172,7 @@
       </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E127" s="1">
         <v>1991</v>
@@ -7180,29 +7182,29 @@
       </c>
       <c r="G127" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I127">
         <f t="shared" ca="1" si="8"/>
-        <v>501</v>
+        <v>680</v>
       </c>
       <c r="J127">
         <f t="shared" ca="1" si="9"/>
-        <v>4505</v>
+        <v>9928</v>
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="10"/>
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="L127">
         <f t="shared" ca="1" si="11"/>
-        <v>7397</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>346</v>
       </c>
@@ -7214,7 +7216,7 @@
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E128" s="1">
         <v>2003</v>
@@ -7224,29 +7226,29 @@
       </c>
       <c r="G128" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I128">
         <f t="shared" ca="1" si="8"/>
-        <v>468</v>
+        <v>969</v>
       </c>
       <c r="J128">
         <f t="shared" ca="1" si="9"/>
-        <v>1183</v>
+        <v>2974</v>
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="10"/>
-        <v>285</v>
+        <v>908</v>
       </c>
       <c r="L128">
         <f t="shared" ca="1" si="11"/>
-        <v>5244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>349</v>
       </c>
@@ -7258,7 +7260,7 @@
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="E129" s="1">
         <v>2012</v>
@@ -7268,29 +7270,29 @@
       </c>
       <c r="G129" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I129">
         <f t="shared" ca="1" si="8"/>
-        <v>427</v>
+        <v>906</v>
       </c>
       <c r="J129">
         <f t="shared" ca="1" si="9"/>
-        <v>4403</v>
+        <v>4253</v>
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>563</v>
       </c>
       <c r="L129">
         <f t="shared" ca="1" si="11"/>
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>352</v>
       </c>
@@ -7302,7 +7304,7 @@
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E130" s="1">
         <v>2001</v>
@@ -7312,29 +7314,29 @@
       </c>
       <c r="G130" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I130">
         <f t="shared" ca="1" si="8"/>
-        <v>972</v>
+        <v>710</v>
       </c>
       <c r="J130">
         <f t="shared" ca="1" si="9"/>
-        <v>1316</v>
+        <v>6021</v>
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="10"/>
-        <v>807</v>
+        <v>438</v>
       </c>
       <c r="L130">
         <f t="shared" ca="1" si="11"/>
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8930</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>355</v>
       </c>
@@ -7345,8 +7347,8 @@
         <v>270</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" ref="D131:D140" ca="1" si="12">RANDBETWEEN(25,125)</f>
-        <v>41</v>
+        <f t="shared" ref="D131:D140" ca="1" si="12">RANDBETWEEN(25,45)</f>
+        <v>37</v>
       </c>
       <c r="E131" s="1">
         <v>2004</v>
@@ -7356,29 +7358,29 @@
       </c>
       <c r="G131" s="1">
         <f t="shared" ref="G131:G140" ca="1" si="13">RANDBETWEEN(0,100)</f>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I140" ca="1" si="14">RANDBETWEEN(K131,1000)</f>
-        <v>928</v>
+        <v>973</v>
       </c>
       <c r="J131">
         <f t="shared" ref="J131:J140" ca="1" si="15">RANDBETWEEN(I131,10000)</f>
-        <v>4213</v>
+        <v>7823</v>
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K140" ca="1" si="16">RANDBETWEEN(25,1000)</f>
-        <v>691</v>
+        <v>370</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131:L140" ca="1" si="17">RANDBETWEEN(K131,10000)</f>
-        <v>5630</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>357</v>
       </c>
@@ -7390,7 +7392,7 @@
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E132" s="1">
         <v>2000</v>
@@ -7400,29 +7402,29 @@
       </c>
       <c r="G132" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I132">
         <f t="shared" ca="1" si="14"/>
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="J132">
         <f t="shared" ca="1" si="15"/>
-        <v>2164</v>
+        <v>6464</v>
       </c>
       <c r="K132">
         <f t="shared" ca="1" si="16"/>
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="L132">
         <f t="shared" ca="1" si="17"/>
-        <v>6222</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>7267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>359</v>
       </c>
@@ -7434,7 +7436,7 @@
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E133" s="1">
         <v>2003</v>
@@ -7444,29 +7446,29 @@
       </c>
       <c r="G133" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I133">
         <f t="shared" ca="1" si="14"/>
-        <v>965</v>
+        <v>849</v>
       </c>
       <c r="J133">
         <f t="shared" ca="1" si="15"/>
-        <v>7921</v>
+        <v>7920</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="16"/>
-        <v>625</v>
+        <v>732</v>
       </c>
       <c r="L133">
         <f t="shared" ca="1" si="17"/>
-        <v>9464</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9508</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>362</v>
       </c>
@@ -7478,7 +7480,7 @@
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E134" s="1">
         <v>2006</v>
@@ -7488,29 +7490,29 @@
       </c>
       <c r="G134" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I134">
         <f t="shared" ca="1" si="14"/>
-        <v>496</v>
+        <v>966</v>
       </c>
       <c r="J134">
         <f t="shared" ca="1" si="15"/>
-        <v>3418</v>
+        <v>5120</v>
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="16"/>
-        <v>341</v>
+        <v>907</v>
       </c>
       <c r="L134">
         <f t="shared" ca="1" si="17"/>
-        <v>569</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>364</v>
       </c>
@@ -7522,7 +7524,7 @@
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E135" s="1">
         <v>2005</v>
@@ -7532,29 +7534,29 @@
       </c>
       <c r="G135" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I135">
         <f t="shared" ca="1" si="14"/>
-        <v>955</v>
+        <v>865</v>
       </c>
       <c r="J135">
         <f t="shared" ca="1" si="15"/>
-        <v>4761</v>
+        <v>5017</v>
       </c>
       <c r="K135">
         <f t="shared" ca="1" si="16"/>
-        <v>933</v>
+        <v>579</v>
       </c>
       <c r="L135">
         <f t="shared" ca="1" si="17"/>
-        <v>8836</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>367</v>
       </c>
@@ -7566,7 +7568,7 @@
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E136" s="1">
         <v>2004</v>
@@ -7576,29 +7578,29 @@
       </c>
       <c r="G136" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I136">
         <f t="shared" ca="1" si="14"/>
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="J136">
         <f t="shared" ca="1" si="15"/>
-        <v>3358</v>
+        <v>8579</v>
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="16"/>
-        <v>44</v>
+        <v>741</v>
       </c>
       <c r="L136">
         <f t="shared" ca="1" si="17"/>
-        <v>8779</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>370</v>
       </c>
@@ -7610,7 +7612,7 @@
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E137" s="1">
         <v>2008</v>
@@ -7620,29 +7622,29 @@
       </c>
       <c r="G137" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I137">
         <f t="shared" ca="1" si="14"/>
-        <v>850</v>
+        <v>927</v>
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="15"/>
-        <v>5413</v>
+        <v>9315</v>
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="16"/>
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="L137">
         <f t="shared" ca="1" si="17"/>
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>373</v>
       </c>
@@ -7654,7 +7656,7 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E138" s="1">
         <v>2013</v>
@@ -7664,29 +7666,29 @@
       </c>
       <c r="G138" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I138">
         <f t="shared" ca="1" si="14"/>
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="15"/>
-        <v>9257</v>
+        <v>2144</v>
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="16"/>
-        <v>868</v>
+        <v>779</v>
       </c>
       <c r="L138">
         <f t="shared" ca="1" si="17"/>
-        <v>9442</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>375</v>
       </c>
@@ -7698,7 +7700,7 @@
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E139" s="1">
         <v>2012</v>
@@ -7708,29 +7710,29 @@
       </c>
       <c r="G139" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I139">
         <f t="shared" ca="1" si="14"/>
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="J139">
         <f t="shared" ca="1" si="15"/>
-        <v>4925</v>
+        <v>4868</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="16"/>
-        <v>773</v>
+        <v>818</v>
       </c>
       <c r="L139">
         <f t="shared" ca="1" si="17"/>
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>378</v>
       </c>
@@ -7742,7 +7744,7 @@
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E140" s="1">
         <v>2013</v>
@@ -7752,27 +7754,30 @@
       </c>
       <c r="G140" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I140">
         <f t="shared" ca="1" si="14"/>
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="J140">
         <f t="shared" ca="1" si="15"/>
-        <v>6811</v>
+        <v>5590</v>
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="16"/>
-        <v>599</v>
+        <v>951</v>
       </c>
       <c r="L140">
         <f t="shared" ca="1" si="17"/>
-        <v>9830</v>
-      </c>
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E143" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
